--- a/Original_Excel_Files/BF.xlsx
+++ b/Original_Excel_Files/BF.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A9FB42-2B30-4CB2-AC8F-BC0DB94E07E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0C8C7C-8133-4D86-A693-05125BD6BC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34470" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="777">
   <si>
     <t>BF723 .M54 K62</t>
   </si>
@@ -1569,13 +1569,793 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>The Analytical Psychology Club of New York</t>
+  </si>
+  <si>
+    <t>Ansbacher, Heinz L. and Ansbacher, Rowena R. eds.</t>
+  </si>
+  <si>
+    <t>Cox, David</t>
+  </si>
+  <si>
+    <t>Puryear, Herbert B.</t>
+  </si>
+  <si>
+    <t>Fromm, Erich</t>
+  </si>
+  <si>
+    <t>Hillman, James</t>
+  </si>
+  <si>
+    <t>Jones, Richard M.</t>
+  </si>
+  <si>
+    <t>Jung, C.G.</t>
+  </si>
+  <si>
+    <t>Castle, Robert L. Van de</t>
+  </si>
+  <si>
+    <t>Zeller, Max</t>
+  </si>
+  <si>
+    <t>Broad, C.D.</t>
+  </si>
+  <si>
+    <t>Rogo, D. Scott</t>
+  </si>
+  <si>
+    <t>Lilly, John C.</t>
+  </si>
+  <si>
+    <t>Watson, Lyall</t>
+  </si>
+  <si>
+    <t>Jaffe, Aniela</t>
+  </si>
+  <si>
+    <t>Simos, Miriam</t>
+  </si>
+  <si>
+    <t>Walsh, Roger N. and Vaughan, Frances eds.</t>
+  </si>
+  <si>
+    <t>Bindra, Dalbir</t>
+  </si>
+  <si>
+    <t>Highet</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Keleman, Stanley</t>
+  </si>
+  <si>
+    <t>Overstreet, H. A.</t>
+  </si>
+  <si>
+    <t>Ryle, Gilbert</t>
+  </si>
+  <si>
+    <t>Lycan</t>
+  </si>
+  <si>
+    <t>William G. Ed.</t>
+  </si>
+  <si>
+    <t>Walcott, William O.</t>
+  </si>
+  <si>
+    <t>Walocott, William ed.</t>
+  </si>
+  <si>
+    <t>Feldenkrais, M</t>
+  </si>
+  <si>
+    <t>Brill, A. A. ed.</t>
+  </si>
+  <si>
+    <t>Fodor, Nandor ed.</t>
+  </si>
+  <si>
+    <t>Freud, Sigmund</t>
+  </si>
+  <si>
+    <t>Freud, Sigmund ed. Strachey, James</t>
+  </si>
+  <si>
+    <t>Suttie, Ian D.</t>
+  </si>
+  <si>
+    <t>Jung, Carl G.</t>
+  </si>
+  <si>
+    <t>Campbell, Joseph</t>
+  </si>
+  <si>
+    <t>Jacobi, Jolande</t>
+  </si>
+  <si>
+    <t>Hillman, Von Franz</t>
+  </si>
+  <si>
+    <t>Singer, June</t>
+  </si>
+  <si>
+    <t>Mullahy, Patrick</t>
+  </si>
+  <si>
+    <t>ed. Hook, Sidney</t>
+  </si>
+  <si>
+    <t>Perls, F. S.</t>
+  </si>
+  <si>
+    <t>Rank, Otto</t>
+  </si>
+  <si>
+    <t>Wickes, Frances G.</t>
+  </si>
+  <si>
+    <t>Erikson, Erik H.</t>
+  </si>
+  <si>
+    <t>Homans, Peter</t>
+  </si>
+  <si>
+    <t>Sanford, John A.</t>
+  </si>
+  <si>
+    <t>Pearson, Carol S.</t>
+  </si>
+  <si>
+    <t>Johnson, Robert A.</t>
+  </si>
+  <si>
+    <t>Thurston, Mark A.</t>
+  </si>
+  <si>
+    <t>Thines, Georges</t>
+  </si>
+  <si>
+    <t>Moustakas, Clark E.</t>
+  </si>
+  <si>
+    <t>Ackerman, Diane</t>
+  </si>
+  <si>
+    <t>Montagu, Ashley</t>
+  </si>
+  <si>
+    <t>Damasio</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Glass, Arnold Lewis; Holyoak, Keith James; Santa, John Lester</t>
+  </si>
+  <si>
+    <t>Goleman</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Hirst</t>
+  </si>
+  <si>
+    <t>R.J.</t>
+  </si>
+  <si>
+    <t>Hochberg, Julian</t>
+  </si>
+  <si>
+    <t>Hochberg</t>
+  </si>
+  <si>
+    <t>Julian E.</t>
+  </si>
+  <si>
+    <t>Hunt, Morton</t>
+  </si>
+  <si>
+    <t>Jaynes, Julian</t>
+  </si>
+  <si>
+    <t>Keen, Sam ed.</t>
+  </si>
+  <si>
+    <t>Rundle</t>
+  </si>
+  <si>
+    <t>Bede</t>
+  </si>
+  <si>
+    <t>Stevens, John O.</t>
+  </si>
+  <si>
+    <t>MacIntyre, A.C.</t>
+  </si>
+  <si>
+    <t>Marks, Charles E.</t>
+  </si>
+  <si>
+    <t>Freedman, Anne E.</t>
+  </si>
+  <si>
+    <t>Freedman</t>
+  </si>
+  <si>
+    <t>Anne E.</t>
+  </si>
+  <si>
+    <t>Feinstein, David and Krippner, Stanley</t>
+  </si>
+  <si>
+    <t>Tobach</t>
+  </si>
+  <si>
+    <t>Ethel (Ed)</t>
+  </si>
+  <si>
+    <t>Barker</t>
+  </si>
+  <si>
+    <t>Roger G.</t>
+  </si>
+  <si>
+    <t>Roszak</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
+    <t>Allport, Gordon W.</t>
+  </si>
+  <si>
+    <t>Malcolm, Norman</t>
+  </si>
+  <si>
+    <t>Flanagan, Owen</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Maritain, Jacques</t>
+  </si>
+  <si>
+    <t>May, Rollo</t>
+  </si>
+  <si>
+    <t>Van De Mortel</t>
+  </si>
+  <si>
+    <t>J.M.</t>
+  </si>
+  <si>
+    <t>Ghiselin</t>
+  </si>
+  <si>
+    <t>Brewster</t>
+  </si>
+  <si>
+    <t>Churchland</t>
+  </si>
+  <si>
+    <t>Paul M.</t>
+  </si>
+  <si>
+    <t>Gould, Stephen Jay</t>
+  </si>
+  <si>
+    <t>Herrnstein, Richard J. and Murray, Charles</t>
+  </si>
+  <si>
+    <t>Piaget, Jean</t>
+  </si>
+  <si>
+    <t>Baily</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>de Bono, Edward</t>
+  </si>
+  <si>
+    <t>Epstein</t>
+  </si>
+  <si>
+    <t>Richard L.</t>
+  </si>
+  <si>
+    <t>Halpern</t>
+  </si>
+  <si>
+    <t>Diane F.</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Richard W.</t>
+  </si>
+  <si>
+    <t>Paul, Richard and Elder, Linda</t>
+  </si>
+  <si>
+    <t>Ruggiero, Vincent Ryan</t>
+  </si>
+  <si>
+    <t>Belth</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Boraas</t>
+  </si>
+  <si>
+    <t>Julius</t>
+  </si>
+  <si>
+    <t>Bruner, Jerome S; Goodnow, Jaqueline J.; Austin, George A.</t>
+  </si>
+  <si>
+    <t>De Bono, Edward</t>
+  </si>
+  <si>
+    <t>Dimnet</t>
+  </si>
+  <si>
+    <t>Ernest</t>
+  </si>
+  <si>
+    <t>Flesch</t>
+  </si>
+  <si>
+    <t>Rudolph</t>
+  </si>
+  <si>
+    <t>Ogden</t>
+  </si>
+  <si>
+    <t>C.K.</t>
+  </si>
+  <si>
+    <t>Langer</t>
+  </si>
+  <si>
+    <t>Susanne K.</t>
+  </si>
+  <si>
+    <t>Langer, Susanne K.</t>
+  </si>
+  <si>
+    <t>Wong</t>
+  </si>
+  <si>
+    <t>Paul T.P. Ed.</t>
+  </si>
+  <si>
+    <t>Provost, Judith</t>
+  </si>
+  <si>
+    <t>Tournier, Paul</t>
+  </si>
+  <si>
+    <t>Griffiths</t>
+  </si>
+  <si>
+    <t>Paul E.</t>
+  </si>
+  <si>
+    <t>Lowen, Alexander</t>
+  </si>
+  <si>
+    <t>Cornelius, Randolph R.</t>
+  </si>
+  <si>
+    <t>Cornelius</t>
+  </si>
+  <si>
+    <t>Randolph R.</t>
+  </si>
+  <si>
+    <t>Lang, R. D.</t>
+  </si>
+  <si>
+    <t>Lazarus</t>
+  </si>
+  <si>
+    <t>Richard S.</t>
+  </si>
+  <si>
+    <t>Calhoun, Cheshire and Solomon, Robert C. eds.</t>
+  </si>
+  <si>
+    <t>Calhoun</t>
+  </si>
+  <si>
+    <t>Cheshire Ed.</t>
+  </si>
+  <si>
+    <t>Rorty, Amelie Oksenberg</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Michael Ed.</t>
+  </si>
+  <si>
+    <t>Dewey, John</t>
+  </si>
+  <si>
+    <t>Mitscherlich, Margarete</t>
+  </si>
+  <si>
+    <t>Lerner</t>
+  </si>
+  <si>
+    <t>Harriet G.</t>
+  </si>
+  <si>
+    <t>Lerner, Harriet Goldhor</t>
+  </si>
+  <si>
+    <t>Rubin, Theodore Isaac</t>
+  </si>
+  <si>
+    <t>Alberti, Robert E. and Emmons, Michael L.</t>
+  </si>
+  <si>
+    <t>Baer, Jean</t>
+  </si>
+  <si>
+    <t>Kopp</t>
+  </si>
+  <si>
+    <t>Sheldon</t>
+  </si>
+  <si>
+    <t>Goodman, Ellen and O'Brien, Patricia</t>
+  </si>
+  <si>
+    <t>Bozarth-Campbell, Alla</t>
+  </si>
+  <si>
+    <t>Haybron</t>
+  </si>
+  <si>
+    <t>Daniel M.</t>
+  </si>
+  <si>
+    <t>Kast, Verena</t>
+  </si>
+  <si>
+    <t>Csikszentmihalyi</t>
+  </si>
+  <si>
+    <t>Keen, Sam</t>
+  </si>
+  <si>
+    <t>Dowrick, Stephanie</t>
+  </si>
+  <si>
+    <t>Buscaglia, Leo</t>
+  </si>
+  <si>
+    <t>Buscaglia</t>
+  </si>
+  <si>
+    <t>Lepp, Ignace</t>
+  </si>
+  <si>
+    <t>Otto, Herbert A. ed.</t>
+  </si>
+  <si>
+    <t>Reik, Theodor</t>
+  </si>
+  <si>
+    <t>Sternberg, Robert J.</t>
+  </si>
+  <si>
+    <t>Allport</t>
+  </si>
+  <si>
+    <t>Gordon W.</t>
+  </si>
+  <si>
+    <t>Watts</t>
+  </si>
+  <si>
+    <t>Alan W.</t>
+  </si>
+  <si>
+    <t>Kaufman, Gershen</t>
+  </si>
+  <si>
+    <t>Kopp, Sheldon</t>
+  </si>
+  <si>
+    <t>Montagu</t>
+  </si>
+  <si>
+    <t>M.F. Ashley (Ed)</t>
+  </si>
+  <si>
+    <t>Hooks</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Tormey, Alan</t>
+  </si>
+  <si>
+    <t>Fast, Julius</t>
+  </si>
+  <si>
+    <t>Wahlroos, Sven</t>
+  </si>
+  <si>
+    <t>Prather, Hugh</t>
+  </si>
+  <si>
+    <t>Clarke, Jean Illsley</t>
+  </si>
+  <si>
+    <t>Rogers, Carl R.</t>
+  </si>
+  <si>
+    <t>Mitchell, Robert and Thompson, Nicholas</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Robert W. Ed.</t>
+  </si>
+  <si>
+    <t>Adult Edu. Association of the U.S.A.</t>
+  </si>
+  <si>
+    <t>Bronson, Po</t>
+  </si>
+  <si>
+    <t>Gawain, Shakti</t>
+  </si>
+  <si>
+    <t>Maslow, A.H.</t>
+  </si>
+  <si>
+    <t>Peck, M. Scott</t>
+  </si>
+  <si>
+    <t>Charles, Taylor</t>
+  </si>
+  <si>
+    <t>Smothermon, Ron</t>
+  </si>
+  <si>
+    <t>Dollard, John and Miller, Neal E.</t>
+  </si>
+  <si>
+    <t>Watts, Alan</t>
+  </si>
+  <si>
+    <t>Lorenz</t>
+  </si>
+  <si>
+    <t>Konrad</t>
+  </si>
+  <si>
+    <t>Lorenz, Konrad</t>
+  </si>
+  <si>
+    <t>Peters, R.S.</t>
+  </si>
+  <si>
+    <t>Bengis</t>
+  </si>
+  <si>
+    <t>Ingrid</t>
+  </si>
+  <si>
+    <t>Franz, Marie-Louise von</t>
+  </si>
+  <si>
+    <t>Jung, Emma</t>
+  </si>
+  <si>
+    <t>Menninger, K. A.</t>
+  </si>
+  <si>
+    <t>Vannoy, Russell</t>
+  </si>
+  <si>
+    <t>Johnson, Robert</t>
+  </si>
+  <si>
+    <t>Branden, Nathaniel</t>
+  </si>
+  <si>
+    <t>Capacchione, Lucia</t>
+  </si>
+  <si>
+    <t>ed. Rorty, Amelie Oksenberg</t>
+  </si>
+  <si>
+    <t>Jourard, Sidney M.</t>
+  </si>
+  <si>
+    <t>Keen, Sam and Anne Valley Fox</t>
+  </si>
+  <si>
+    <t>Lasch</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Myers, Gerald E.</t>
+  </si>
+  <si>
+    <t>Whyte, William H.</t>
+  </si>
+  <si>
+    <t>Whyte, Jr.</t>
+  </si>
+  <si>
+    <t>William H.</t>
+  </si>
+  <si>
+    <t>Satir, Virginia</t>
+  </si>
+  <si>
+    <t>Skinner, B.F.</t>
+  </si>
+  <si>
+    <t>Dunbar</t>
+  </si>
+  <si>
+    <t>R.I.M Ed.</t>
+  </si>
+  <si>
+    <t>Morris, Desmond</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>Desmond</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Curtis G.</t>
+  </si>
+  <si>
+    <t>Hocking, William Ernest</t>
+  </si>
+  <si>
+    <t>Kaluger</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Hershey, Gerald and Lugo, James O.</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>James O.</t>
+  </si>
+  <si>
+    <t>Plotkin, Bill</t>
+  </si>
+  <si>
+    <t>Winnicott, D. W.</t>
+  </si>
+  <si>
+    <t>Miller, David L.</t>
+  </si>
+  <si>
+    <t>Gardner</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Gardner, Howard</t>
+  </si>
+  <si>
+    <t>Gesell, Arnold and Ilg, Frances</t>
+  </si>
+  <si>
+    <t>Josselyn, Irene M.</t>
+  </si>
+  <si>
+    <t>Kagan, Jerome</t>
+  </si>
+  <si>
+    <t>Kagan</t>
+  </si>
+  <si>
+    <t>Jerome</t>
+  </si>
+  <si>
+    <t>Laing, R.D.</t>
+  </si>
+  <si>
+    <t>Montessori</t>
+  </si>
+  <si>
+    <t>Kohlberg</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Piaget, J.</t>
+  </si>
+  <si>
+    <t>Howe, Reuel L.</t>
+  </si>
+  <si>
+    <t>Levinson, Daniel J.</t>
+  </si>
+  <si>
+    <t>Goffman</t>
+  </si>
+  <si>
+    <t>Erving</t>
+  </si>
+  <si>
+    <t>Laplanche, Jean</t>
+  </si>
+  <si>
+    <t>Riesman</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Bem, Daryl J.</t>
+  </si>
+  <si>
+    <t>Shermer, Michael</t>
+  </si>
+  <si>
+    <t>Kubler-Ross, Elisabeth</t>
+  </si>
+  <si>
+    <t>Kübler-Ross, Elisabeth</t>
+  </si>
+  <si>
+    <t>Adler, Alfred</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1630,13 +2410,39 @@
       <color rgb="FF333333"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -1694,7 +2500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1774,6 +2580,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2113,4077 +2936,5430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E443"/>
+  <dimension ref="A1:G443"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29"/>
-    <col min="3" max="3" width="90" customWidth="1"/>
+    <col min="1" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="29"/>
+    <col min="5" max="5" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" s="27">
         <v>1979</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="D3" s="28">
         <v>1973</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="28">
         <v>1967</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="A5" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" s="27">
         <v>1959</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="28">
         <v>1971</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="D8" s="27">
         <v>1957</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="D9" s="27">
         <v>1979</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" s="27">
         <v>1970</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D11" s="28">
         <v>1974</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="D12" s="27">
         <v>1994</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="D13" s="28">
         <v>1975</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="27">
         <v>1963</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="D15" s="28">
         <v>1963</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="D16" s="28">
         <v>1960</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17" s="27">
         <v>1978</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="D18" s="27">
         <v>1972</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="E18" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
       <c r="A19" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" s="28">
         <v>1974</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
       <c r="A21" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="28">
         <v>1979</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
       <c r="A22" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="D22" s="28">
         <v>1963</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="D23" s="28">
         <v>1989</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="D24" s="28">
         <v>1980</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="D25" s="28">
         <v>1980</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="E25" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="A26" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>537</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>537</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="D28" s="28">
         <v>1979</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="E28" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
       <c r="A29" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="D29" s="28">
         <v>1949</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
       <c r="A30" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="D30" s="28">
         <v>1962</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="D31" s="31">
         <v>2008</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1">
       <c r="A32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="D32" s="32">
         <v>2008</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1">
       <c r="A33" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="44" t="s">
+        <v>543</v>
+      </c>
+      <c r="D33" s="28">
         <v>1971</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1">
       <c r="A34" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="D34" s="28">
         <v>1978</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="E34" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1">
       <c r="A35" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="D35" s="27">
         <v>1996</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1">
       <c r="A36" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="D36" s="28">
         <v>1938</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1">
       <c r="A37" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="45" t="s">
+        <v>547</v>
+      </c>
+      <c r="D37" s="27">
         <v>1950</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1">
       <c r="A38" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="44" t="s">
+        <v>548</v>
+      </c>
+      <c r="D38" s="27">
         <v>1958</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="E38" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1">
       <c r="A39" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="44" t="s">
+        <v>549</v>
+      </c>
+      <c r="D39" s="28">
         <v>1966</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1">
       <c r="A40" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="D40" s="28">
         <v>1965</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="45" t="s">
+        <v>550</v>
+      </c>
+      <c r="D41" s="27">
         <v>1966</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="E41" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1">
       <c r="A42" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="D42" s="27">
         <v>1955</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1">
       <c r="A43" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="D43" s="27">
         <v>1975</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="E43" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1">
       <c r="A44" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D44" s="28">
         <v>1958</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F44" s="18"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1">
       <c r="A45" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="D45" s="27">
         <v>1971</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="E45" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F45" s="18"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1">
       <c r="A46" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="D46" s="27">
         <v>1971</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="E46" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F46" s="18"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1">
       <c r="A47" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="D47" s="27">
         <v>1958</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="E47" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F47" s="18"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1">
       <c r="A48" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="44" t="s">
+        <v>553</v>
+      </c>
+      <c r="D48" s="28">
         <v>1973</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="E48" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F48" s="18"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1">
       <c r="A49" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="D49" s="28">
         <v>1971</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="E49" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F49" s="18"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1">
       <c r="A50" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="D50" s="28">
         <v>1973</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="E50" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F50" s="18"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="D51" s="28">
         <v>1955</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="E51" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F51" s="18"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1">
       <c r="A52" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="D52" s="28">
         <v>1959</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="E52" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F52" s="18"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1">
       <c r="A53" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="D53" s="28">
         <v>1969</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="E53" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F53" s="18"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1">
       <c r="A54" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B54" s="28">
+      <c r="B54" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="D54" s="28">
         <v>1929</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="E54" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="D55" s="27">
         <v>1963</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="D56" s="27">
         <v>1962</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="E56" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B57" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="D57" s="27">
         <v>1959</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="E57" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1">
       <c r="A58" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="D58" s="27">
         <v>1964</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="E58" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1">
       <c r="A59" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="D59" s="27">
         <v>1986</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="E59" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1">
       <c r="A60" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="D60" s="28">
         <v>1959</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="E60" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1">
       <c r="A61" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B61" s="28">
+      <c r="B61" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="D61" s="28">
         <v>1980</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="E61" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1">
       <c r="A62" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="45" t="s">
+        <v>564</v>
+      </c>
+      <c r="D62" s="27">
         <v>1989</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="E62" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1">
       <c r="A63" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="D63" s="27">
         <v>1993</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="E63" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1">
       <c r="A64" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B64" s="28">
+      <c r="B64" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="D64" s="28">
         <v>1981</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="E64" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1">
+    <row r="65" spans="1:7" ht="15.75" thickBot="1">
       <c r="A65" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B65" s="27">
+      <c r="B65" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="D65" s="27">
         <v>1977</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="E65" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1">
       <c r="A66" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="D66" s="28">
         <v>1956</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="E66" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1">
+    <row r="67" spans="1:7" ht="15.75" thickBot="1">
       <c r="A67" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B67" s="28">
+      <c r="B67" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="D67" s="28">
         <v>1991</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="E67" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1">
       <c r="A68" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B68" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="D68" s="28">
         <v>1977</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="E68" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1">
       <c r="A69" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="47" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D69" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1">
       <c r="A70" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="32">
+      <c r="B70" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>572</v>
+      </c>
+      <c r="D70" s="32">
         <v>1999</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1">
+    <row r="71" spans="1:7" ht="15.75" thickBot="1">
       <c r="A71" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="31">
+      <c r="B71" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>572</v>
+      </c>
+      <c r="D71" s="31">
         <v>1999</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1">
+    <row r="72" spans="1:7" ht="15.75" thickBot="1">
       <c r="A72" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B72" s="44" t="s">
+        <v>573</v>
+      </c>
+      <c r="D72" s="27">
         <v>1979</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="E72" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1">
       <c r="A73" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B73" s="48" t="s">
+        <v>574</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="D73" s="31">
         <v>1986</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1">
+    <row r="74" spans="1:7" ht="15.75" thickBot="1">
       <c r="A74" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="32">
+      <c r="B74" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="D74" s="32">
         <v>1986</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1">
+    <row r="75" spans="1:7" ht="15.75" thickBot="1">
       <c r="A75" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="D75" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1">
       <c r="A76" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B76" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="D76" s="27">
         <v>1964</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="E76" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1">
       <c r="A77" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B77" s="32">
+      <c r="B77" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="D77" s="32">
         <v>1964</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1">
+    <row r="78" spans="1:7" ht="15.75" thickBot="1">
       <c r="A78" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="D78" s="31">
         <v>1964</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="E78" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1">
+    <row r="79" spans="1:7" ht="15.75" thickBot="1">
       <c r="A79" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B79" s="28">
+      <c r="B79" s="44" t="s">
+        <v>581</v>
+      </c>
+      <c r="D79" s="28">
         <v>1982</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="E79" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1">
       <c r="A80" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B80" s="28">
+      <c r="B80" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="D80" s="28">
         <v>1976</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="E80" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B81" s="45" t="s">
+        <v>583</v>
+      </c>
+      <c r="D81" s="27">
         <v>1974</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="E81" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickBot="1">
       <c r="A82" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="46" t="s">
+        <v>584</v>
+      </c>
+      <c r="C82" s="46" t="s">
+        <v>585</v>
+      </c>
+      <c r="D82" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>112</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1">
       <c r="A83" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B83" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="D83" s="27">
         <v>1971</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="E83" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1">
       <c r="A84" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B84" s="28">
+      <c r="B84" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D84" s="28">
         <v>1956</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="E84" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1">
       <c r="A85" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B85" s="27">
+      <c r="B85" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="D85" s="27">
         <v>1962</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="E85" s="15" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1">
+    <row r="86" spans="1:7" ht="15.75" thickBot="1">
       <c r="A86" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B86" s="28">
+      <c r="B86" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="D86" s="28">
         <v>1980</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="E86" s="14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1">
+    <row r="87" spans="1:7" ht="15.75" thickBot="1">
       <c r="A87" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B87" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="D87" s="28">
         <v>1972</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="E87" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1">
+    <row r="88" spans="1:7" ht="15.75" thickBot="1">
       <c r="A88" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="D88" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1">
+    <row r="89" spans="1:7" ht="15.75" thickBot="1">
       <c r="A89" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D89" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1">
       <c r="A90" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B90" s="28">
+      <c r="B90" s="44" t="s">
+        <v>592</v>
+      </c>
+      <c r="D90" s="28">
         <v>1988</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="E90" s="14" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1">
+    <row r="91" spans="1:7" ht="15.75" thickBot="1">
       <c r="A91" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="47" t="s">
+        <v>593</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>594</v>
+      </c>
+      <c r="D91" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1">
+    <row r="92" spans="1:7" ht="15.75" thickBot="1">
       <c r="A92" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="47" t="s">
+        <v>595</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>596</v>
+      </c>
+      <c r="D92" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1">
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickBot="1">
       <c r="A93" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>598</v>
+      </c>
+      <c r="D93" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>121</v>
       </c>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1">
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1">
       <c r="A94" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B94" s="28">
+      <c r="B94" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="D94" s="28">
         <v>1963</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="E94" s="14" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1">
+    <row r="95" spans="1:7" ht="15.75" thickBot="1">
       <c r="A95" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="B95" s="28">
+      <c r="B95" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="D95" s="28">
         <v>1975</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="E95" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:7">
       <c r="A96" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B96" s="45" t="s">
+        <v>600</v>
+      </c>
+      <c r="D96" s="27">
         <v>1971</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="E96" s="15" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:7">
       <c r="A97" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="D97" s="27">
         <v>1991</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="E97" s="15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:7" ht="15.75" thickBot="1">
       <c r="A98" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="50" t="s">
+        <v>602</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>603</v>
+      </c>
+      <c r="D98" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="E98" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickBot="1">
       <c r="A99" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="44" t="s">
+        <v>604</v>
+      </c>
+      <c r="D99" s="27">
         <v>1953</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="E99" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" thickBot="1">
       <c r="A100" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B100" s="28">
+      <c r="B100" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="D100" s="28">
         <v>1975</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="E100" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1">
       <c r="A101" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B101" s="29">
+      <c r="B101" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="D101" s="29">
         <v>1995</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1">
+    <row r="102" spans="1:7" ht="15.75" thickBot="1">
       <c r="A102" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B102" s="32">
+      <c r="B102" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="C102" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="D102" s="32">
         <v>1995</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1">
+    <row r="103" spans="1:7" ht="15.75" thickBot="1">
       <c r="A103" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="48" t="s">
+        <v>608</v>
+      </c>
+      <c r="C103" s="48" t="s">
+        <v>609</v>
+      </c>
+      <c r="D103" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="E103" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1">
       <c r="A104" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B104" s="32">
+      <c r="B104" s="49" t="s">
+        <v>610</v>
+      </c>
+      <c r="C104" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="D104" s="32">
         <v>1988</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1">
+    <row r="105" spans="1:7" ht="15.75" thickBot="1">
       <c r="A105" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B105" s="31">
+      <c r="B105" s="48" t="s">
+        <v>610</v>
+      </c>
+      <c r="C105" s="48" t="s">
+        <v>611</v>
+      </c>
+      <c r="D105" s="31">
         <v>1988</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="E105" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1">
+    <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="B106" s="28">
+      <c r="B106" s="45" t="s">
+        <v>612</v>
+      </c>
+      <c r="D106" s="28">
         <v>1981</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="E106" s="14" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:7">
       <c r="A107" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B107" s="45" t="s">
+        <v>613</v>
+      </c>
+      <c r="D107" s="27">
         <v>1994</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="E107" s="15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:7" ht="15.75" thickBot="1">
       <c r="A108" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108" s="45" t="s">
+        <v>614</v>
+      </c>
+      <c r="D108" s="27">
         <v>1981</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="E108" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1">
+    <row r="109" spans="1:7" ht="15.75" thickBot="1">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="49" t="s">
+        <v>615</v>
+      </c>
+      <c r="C109" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="D109" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1">
+    <row r="110" spans="1:7" ht="15.75" thickBot="1">
       <c r="A110" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="B110" s="28">
+      <c r="B110" s="45" t="s">
+        <v>617</v>
+      </c>
+      <c r="D110" s="28">
         <v>1999</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="E110" s="14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" ht="15.75" thickBot="1">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="49" t="s">
+        <v>618</v>
+      </c>
+      <c r="C111" s="49" t="s">
+        <v>619</v>
+      </c>
+      <c r="D111" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1">
+    <row r="112" spans="1:7" ht="15.75" thickBot="1">
       <c r="A112" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="33" t="s">
+      <c r="B112" s="49" t="s">
+        <v>618</v>
+      </c>
+      <c r="C112" s="49" t="s">
+        <v>619</v>
+      </c>
+      <c r="D112" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1">
+    <row r="113" spans="1:7" ht="15.75" thickBot="1">
       <c r="A113" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="52" t="s">
+        <v>620</v>
+      </c>
+      <c r="C113" s="52" t="s">
+        <v>621</v>
+      </c>
+      <c r="D113" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:7" ht="15.75" thickBot="1">
       <c r="A114" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="52" t="s">
+        <v>620</v>
+      </c>
+      <c r="C114" s="52" t="s">
+        <v>621</v>
+      </c>
+      <c r="D114" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1">
+    <row r="115" spans="1:7" ht="15.75" thickBot="1">
       <c r="A115" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="49" t="s">
+        <v>622</v>
+      </c>
+      <c r="C115" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="D115" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="E115" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1">
+    <row r="116" spans="1:7" ht="15.75" thickBot="1">
       <c r="A116" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="47" t="s">
+        <v>622</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>623</v>
+      </c>
+      <c r="D116" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="E116" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" thickBot="1">
       <c r="A117" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B117" s="28">
+      <c r="B117" s="53" t="s">
+        <v>624</v>
+      </c>
+      <c r="D117" s="28">
         <v>2003</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="E117" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1">
+    <row r="118" spans="1:7" ht="15.75" thickBot="1">
       <c r="A118" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B118" s="28">
+      <c r="B118" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="D118" s="28">
         <v>2003</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="E118" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" thickBot="1">
       <c r="A119" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="52" t="s">
+        <v>626</v>
+      </c>
+      <c r="C119" s="52" t="s">
+        <v>627</v>
+      </c>
+      <c r="D119" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1">
+    <row r="120" spans="1:7" ht="15.75" thickBot="1">
       <c r="A120" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B120" s="33" t="s">
+      <c r="B120" s="49" t="s">
+        <v>628</v>
+      </c>
+      <c r="C120" s="49" t="s">
+        <v>629</v>
+      </c>
+      <c r="D120" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1">
+    <row r="121" spans="1:7" ht="15.75" thickBot="1">
       <c r="A121" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="28">
+      <c r="B121" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="D121" s="28">
         <v>1962</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="E121" s="14" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1">
+    <row r="122" spans="1:7" ht="15.75" thickBot="1">
       <c r="A122" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="B122" s="31">
+      <c r="B122" s="48" t="s">
+        <v>631</v>
+      </c>
+      <c r="D122" s="31">
         <v>1986</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="E122" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1">
+    <row r="123" spans="1:7" ht="15.75" thickBot="1">
       <c r="A123" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B123" s="30">
+      <c r="B123" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="D123" s="30">
         <v>1986</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="E123" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" thickBot="1">
       <c r="A124" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B124" s="33" t="s">
+      <c r="B124" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="C124" s="49" t="s">
+        <v>633</v>
+      </c>
+      <c r="D124" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1">
+    <row r="125" spans="1:7" ht="15.75" thickBot="1">
       <c r="A125" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="49" t="s">
+        <v>634</v>
+      </c>
+      <c r="C125" s="49" t="s">
+        <v>635</v>
+      </c>
+      <c r="D125" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1">
+    <row r="126" spans="1:7" ht="15.75" thickBot="1">
       <c r="A126" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="47" t="s">
+        <v>636</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="D126" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E126" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1">
+    <row r="127" spans="1:7" ht="15.75" thickBot="1">
       <c r="A127" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="48" t="s">
+        <v>638</v>
+      </c>
+      <c r="C127" s="48" t="s">
+        <v>639</v>
+      </c>
+      <c r="D127" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="E127" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1">
+    <row r="128" spans="1:7" ht="15.75" thickBot="1">
       <c r="A128" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B128" s="28">
+      <c r="B128" s="45" t="s">
+        <v>640</v>
+      </c>
+      <c r="D128" s="28">
         <v>1949</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="E128" s="14" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" thickBot="1">
+    <row r="129" spans="1:7" ht="15.75" thickBot="1">
       <c r="A129" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B129" s="32">
+      <c r="B129" s="49" t="s">
+        <v>641</v>
+      </c>
+      <c r="C129" s="49" t="s">
+        <v>642</v>
+      </c>
+      <c r="D129" s="32">
         <v>1998</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1">
+    <row r="130" spans="1:7" ht="15.75" thickBot="1">
       <c r="A130" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B130" s="31">
+      <c r="B130" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="C130" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="D130" s="31">
         <v>1998</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="E130" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" thickBot="1">
+    <row r="131" spans="1:7" ht="15.75" thickBot="1">
       <c r="A131" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B131" s="28">
+      <c r="B131" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="D131" s="28">
         <v>1990</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="E131" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D131" s="12"/>
-      <c r="E131" s="10"/>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131" s="12"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" thickBot="1">
       <c r="A132" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="B132" s="27">
+      <c r="B132" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="D132" s="27">
         <v>1965</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="E132" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="D132" s="12"/>
-      <c r="E132" s="10"/>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F132" s="12"/>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" thickBot="1">
       <c r="A133" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B133" s="32">
+      <c r="B133" s="49" t="s">
+        <v>645</v>
+      </c>
+      <c r="C133" s="49" t="s">
+        <v>646</v>
+      </c>
+      <c r="D133" s="32">
         <v>1997</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="E133" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" thickBot="1">
+    <row r="134" spans="1:7" ht="15.75" thickBot="1">
       <c r="A134" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B134" s="31">
+      <c r="B134" s="48" t="s">
+        <v>645</v>
+      </c>
+      <c r="C134" s="48" t="s">
+        <v>646</v>
+      </c>
+      <c r="D134" s="31">
         <v>1997</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="E134" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" thickBot="1">
+    <row r="135" spans="1:7" ht="15.75" thickBot="1">
       <c r="A135" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="B135" s="28">
+      <c r="B135" s="44" t="s">
+        <v>647</v>
+      </c>
+      <c r="D135" s="28">
         <v>1970</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="E135" s="14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" thickBot="1">
+    <row r="136" spans="1:7" ht="15.75" thickBot="1">
       <c r="A136" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B136" s="28">
+      <c r="B136" s="44" t="s">
+        <v>648</v>
+      </c>
+      <c r="D136" s="28">
         <v>1996</v>
       </c>
-      <c r="C136" s="14" t="s">
+      <c r="E136" s="14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" thickBot="1">
+    <row r="137" spans="1:7" ht="15.75" thickBot="1">
       <c r="A137" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B137" s="31">
+      <c r="B137" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="C137" s="50" t="s">
+        <v>650</v>
+      </c>
+      <c r="D137" s="31">
         <v>1996</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="E137" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B138" s="32">
+      <c r="B138" s="52" t="s">
+        <v>649</v>
+      </c>
+      <c r="C138" s="52" t="s">
+        <v>650</v>
+      </c>
+      <c r="D138" s="32">
         <v>1996</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="E138" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:7">
       <c r="A139" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B139" s="27">
+      <c r="B139" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="D139" s="27">
         <v>1982</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="E139" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="D139" s="12"/>
-      <c r="E139" s="10"/>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139" s="12"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" thickBot="1">
       <c r="A140" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B140" s="32">
+      <c r="B140" s="52" t="s">
+        <v>652</v>
+      </c>
+      <c r="C140" s="52" t="s">
+        <v>653</v>
+      </c>
+      <c r="D140" s="32">
         <v>1991</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="E140" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" thickBot="1">
+    <row r="141" spans="1:7" ht="15.75" thickBot="1">
       <c r="A141" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B141" s="31">
+      <c r="B141" s="48" t="s">
+        <v>652</v>
+      </c>
+      <c r="C141" s="48" t="s">
+        <v>653</v>
+      </c>
+      <c r="D141" s="31">
         <v>1991</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="E141" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" thickBot="1">
+    <row r="142" spans="1:7" ht="15.75" thickBot="1">
       <c r="A142" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B142" s="28">
+      <c r="B142" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="D142" s="28">
         <v>1984</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="E142" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D142" s="12"/>
-      <c r="E142" s="10"/>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142" s="12"/>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B143" s="31">
+      <c r="B143" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="C143" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="D143" s="31">
         <v>1984</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="E143" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B144" s="32">
+      <c r="B144" s="52" t="s">
+        <v>655</v>
+      </c>
+      <c r="C144" s="52" t="s">
+        <v>656</v>
+      </c>
+      <c r="D144" s="32">
         <v>1984</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:7">
       <c r="A145" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B145" s="27">
+      <c r="B145" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="D145" s="27">
         <v>1980</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="E145" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B146" s="32">
+      <c r="B146" s="52" t="s">
+        <v>658</v>
+      </c>
+      <c r="C146" s="52" t="s">
+        <v>659</v>
+      </c>
+      <c r="D146" s="32">
         <v>1993</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="E146" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:7">
       <c r="A147" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B147" s="31">
+      <c r="B147" s="50" t="s">
+        <v>658</v>
+      </c>
+      <c r="C147" s="50" t="s">
+        <v>659</v>
+      </c>
+      <c r="D147" s="31">
         <v>1993</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="E147" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:7">
       <c r="A148" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="B148" s="27">
+      <c r="B148" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="D148" s="27">
         <v>1957</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="E148" s="15" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:7" ht="15.75" thickBot="1">
       <c r="A149" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="B149" s="27">
+      <c r="B149" s="45" t="s">
+        <v>661</v>
+      </c>
+      <c r="D149" s="27">
         <v>1987</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="E149" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="D149" s="12"/>
-      <c r="E149" s="10"/>
-    </row>
-    <row r="150" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F149" s="12"/>
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" thickBot="1">
       <c r="A150" t="s">
         <v>125</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="B150" s="47" t="s">
+        <v>662</v>
+      </c>
+      <c r="C150" s="47" t="s">
+        <v>663</v>
+      </c>
+      <c r="D150" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C150" t="s">
+      <c r="E150" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" thickBot="1">
+    <row r="151" spans="1:7" ht="15.75" thickBot="1">
       <c r="A151" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="B151" s="28">
+      <c r="B151" s="44" t="s">
+        <v>664</v>
+      </c>
+      <c r="D151" s="28">
         <v>1989</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="E151" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="D151" s="12"/>
-      <c r="E151" s="10"/>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F151" s="12"/>
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" thickBot="1">
       <c r="A152" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B152" s="28">
+      <c r="B152" s="44" t="s">
+        <v>665</v>
+      </c>
+      <c r="D152" s="28">
         <v>1969</v>
       </c>
-      <c r="C152" s="14" t="s">
+      <c r="E152" s="14" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" thickBot="1">
+    <row r="153" spans="1:7" ht="15.75" thickBot="1">
       <c r="A153" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B153" s="28">
+      <c r="B153" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="D153" s="28">
         <v>1977</v>
       </c>
-      <c r="C153" s="14" t="s">
+      <c r="E153" s="14" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" thickBot="1">
+    <row r="154" spans="1:7" ht="15.75" thickBot="1">
       <c r="A154" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="B154" s="28">
+      <c r="B154" s="44" t="s">
+        <v>666</v>
+      </c>
+      <c r="D154" s="28">
         <v>1978</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="E154" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D154" s="12"/>
-      <c r="E154" s="10"/>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F154" s="12"/>
+      <c r="G154" s="10"/>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" thickBot="1">
       <c r="A155" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B155" s="28">
+      <c r="B155" s="45" t="s">
+        <v>667</v>
+      </c>
+      <c r="D155" s="28">
         <v>1976</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="E155" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="D155" s="12"/>
-      <c r="E155" s="10"/>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" s="12"/>
+      <c r="G155" s="10"/>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" thickBot="1">
       <c r="A156" t="s">
         <v>75</v>
       </c>
-      <c r="B156" s="29" t="s">
+      <c r="B156" s="46" t="s">
+        <v>668</v>
+      </c>
+      <c r="C156" s="46" t="s">
+        <v>669</v>
+      </c>
+      <c r="D156" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C156" t="s">
+      <c r="E156" t="s">
         <v>73</v>
       </c>
-      <c r="D156" s="12"/>
-      <c r="E156" s="10"/>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F156" s="12"/>
+      <c r="G156" s="10"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" thickBot="1">
       <c r="A157" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B157" s="32" t="s">
+      <c r="B157" s="49" t="s">
+        <v>668</v>
+      </c>
+      <c r="C157" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="D157" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="E157" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" thickBot="1">
       <c r="A158" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B158" s="28">
+      <c r="B158" s="44" t="s">
+        <v>664</v>
+      </c>
+      <c r="D158" s="28">
         <v>2004</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="E158" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" thickBot="1">
       <c r="A159" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B159" s="28">
+      <c r="B159" s="45" t="s">
+        <v>670</v>
+      </c>
+      <c r="D159" s="28">
         <v>2000</v>
       </c>
-      <c r="C159" s="14" t="s">
+      <c r="E159" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" thickBot="1">
       <c r="A160" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B160" s="27">
+      <c r="B160" s="44" t="s">
+        <v>671</v>
+      </c>
+      <c r="D160" s="27">
         <v>1982</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="E160" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" thickBot="1">
       <c r="A161" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B161" s="32">
+      <c r="B161" s="49" t="s">
+        <v>672</v>
+      </c>
+      <c r="C161" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="D161" s="32">
         <v>2008</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="E161" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" thickBot="1">
+    <row r="162" spans="1:7" ht="15.75" thickBot="1">
       <c r="A162" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B162" s="31">
+      <c r="B162" s="50" t="s">
+        <v>672</v>
+      </c>
+      <c r="C162" s="50" t="s">
+        <v>673</v>
+      </c>
+      <c r="D162" s="31">
         <v>2008</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="E162" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:7">
       <c r="A163" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B163" s="27">
+      <c r="B163" s="45" t="s">
+        <v>674</v>
+      </c>
+      <c r="D163" s="27">
         <v>1991</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="E163" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="D163" s="12"/>
-      <c r="E163" s="10"/>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163" s="12"/>
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B164" s="27">
+      <c r="B164" s="45" t="s">
+        <v>675</v>
+      </c>
+      <c r="D164" s="27">
         <v>1990</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="E164" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B165" s="27">
+      <c r="B165" s="45" t="s">
+        <v>676</v>
+      </c>
+      <c r="D165" s="27">
         <v>1986</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="E165" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="D165" s="12"/>
-      <c r="E165" s="10"/>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165" s="12"/>
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" thickBot="1">
       <c r="A166" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B166" s="27">
+      <c r="B166" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="D166" s="27">
         <v>1991</v>
       </c>
-      <c r="C166" s="15" t="s">
+      <c r="E166" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="D166" s="12"/>
-      <c r="E166" s="10"/>
-    </row>
-    <row r="167" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F166" s="12"/>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" thickBot="1">
       <c r="A167" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="B167" s="27">
+      <c r="B167" s="44" t="s">
+        <v>678</v>
+      </c>
+      <c r="D167" s="27">
         <v>1986</v>
       </c>
-      <c r="C167" s="15" t="s">
+      <c r="E167" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="D167" s="12"/>
-      <c r="E167" s="10"/>
-    </row>
-    <row r="168" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F167" s="12"/>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" thickBot="1">
       <c r="A168" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B168" s="31" t="s">
+      <c r="B168" s="50" t="s">
+        <v>679</v>
+      </c>
+      <c r="D168" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="E168" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:7">
       <c r="A169" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B169" s="27">
+      <c r="B169" s="45" t="s">
+        <v>676</v>
+      </c>
+      <c r="D169" s="27">
         <v>1999</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="E169" s="15" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:7">
       <c r="A170" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="B170" s="27">
+      <c r="B170" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="D170" s="27">
         <v>1963</v>
       </c>
-      <c r="C170" s="15" t="s">
+      <c r="E170" s="15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:7">
       <c r="A171" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="B171" s="27">
+      <c r="B171" s="45" t="s">
+        <v>681</v>
+      </c>
+      <c r="D171" s="27">
         <v>1972</v>
       </c>
-      <c r="C171" s="15" t="s">
+      <c r="E171" s="15" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:7">
       <c r="A172" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C172" s="15" t="s">
+      <c r="B172" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="E172" s="15" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:7">
       <c r="A173" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B173" s="27">
+      <c r="B173" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="D173" s="27">
         <v>1998</v>
       </c>
-      <c r="C173" s="15" t="s">
+      <c r="E173" s="15" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>500</v>
       </c>
-      <c r="B174" s="29" t="s">
+      <c r="B174" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="C174" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="D174" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="C174" t="s">
+      <c r="E174" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:7" ht="15.75" thickBot="1">
       <c r="A175" t="s">
         <v>502</v>
       </c>
-      <c r="B175" s="29" t="s">
+      <c r="B175" s="46" t="s">
+        <v>686</v>
+      </c>
+      <c r="C175" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D175" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C175" t="s">
+      <c r="E175" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" thickBot="1">
+    <row r="176" spans="1:7" ht="15.75" thickBot="1">
       <c r="A176" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="B176" s="27">
+      <c r="B176" s="44" t="s">
+        <v>688</v>
+      </c>
+      <c r="D176" s="27">
         <v>1980</v>
       </c>
-      <c r="C176" s="15" t="s">
+      <c r="E176" s="15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" thickBot="1">
+    <row r="177" spans="1:7" ht="15.75" thickBot="1">
       <c r="A177" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B177" s="28">
+      <c r="B177" s="44" t="s">
+        <v>689</v>
+      </c>
+      <c r="D177" s="28">
         <v>1988</v>
       </c>
-      <c r="C177" s="14" t="s">
+      <c r="E177" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="D177" s="12"/>
-      <c r="E177" s="10"/>
-    </row>
-    <row r="178" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F177" s="12"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" thickBot="1">
       <c r="A178" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="B178" s="29" t="s">
+      <c r="B178" s="46" t="s">
+        <v>690</v>
+      </c>
+      <c r="C178" s="46" t="s">
+        <v>691</v>
+      </c>
+      <c r="D178" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="C178" t="s">
+      <c r="E178" t="s">
         <v>499</v>
       </c>
-      <c r="D178" s="12"/>
-      <c r="E178" s="10"/>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178" s="12"/>
+      <c r="G178" s="10"/>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B179" s="27">
+      <c r="B179" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="D179" s="27">
         <v>1973</v>
       </c>
-      <c r="C179" s="15" t="s">
+      <c r="E179" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="D179" s="12"/>
-      <c r="E179" s="10"/>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" s="12"/>
+      <c r="G179" s="10"/>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B180" s="31" t="s">
+      <c r="B180" s="50" t="s">
+        <v>679</v>
+      </c>
+      <c r="D180" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="E180" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:7" ht="15.75" thickBot="1">
       <c r="A181" t="s">
         <v>128</v>
       </c>
-      <c r="B181" s="29" t="s">
+      <c r="B181" s="46" t="s">
+        <v>692</v>
+      </c>
+      <c r="C181" s="46" t="s">
+        <v>693</v>
+      </c>
+      <c r="D181" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C181" t="s">
+      <c r="E181" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" thickBot="1">
+    <row r="182" spans="1:7" ht="15.75" thickBot="1">
       <c r="A182" t="s">
         <v>128</v>
       </c>
-      <c r="B182" s="29" t="s">
+      <c r="B182" s="47" t="s">
+        <v>692</v>
+      </c>
+      <c r="C182" s="47" t="s">
+        <v>693</v>
+      </c>
+      <c r="D182" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C182" t="s">
+      <c r="E182" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" thickBot="1">
+    <row r="183" spans="1:7" ht="15.75" thickBot="1">
       <c r="A183" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B183" s="28">
+      <c r="B183" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="D183" s="28">
         <v>1981</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="E183" s="14" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" thickBot="1">
+    <row r="184" spans="1:7" ht="15.75" thickBot="1">
       <c r="A184" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="B184" s="28">
+      <c r="B184" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="D184" s="28">
         <v>1971</v>
       </c>
-      <c r="C184" s="14" t="s">
+      <c r="E184" s="14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:7">
       <c r="A185" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="B185" s="27">
+      <c r="B185" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="D185" s="27">
         <v>1970</v>
       </c>
-      <c r="C185" s="15" t="s">
+      <c r="E185" s="15" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:7">
       <c r="A186" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="B186" s="27">
+      <c r="B186" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="D186" s="27">
         <v>1974</v>
       </c>
-      <c r="C186" s="15" t="s">
+      <c r="E186" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:7">
       <c r="A187" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B187" s="27">
+      <c r="B187" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="D187" s="27">
         <v>1970</v>
       </c>
-      <c r="C187" s="15" t="s">
+      <c r="E187" s="15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:7" ht="15.75" thickBot="1">
       <c r="A188" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="B188" s="27">
+      <c r="B188" s="45" t="s">
+        <v>698</v>
+      </c>
+      <c r="D188" s="27">
         <v>1983</v>
       </c>
-      <c r="C188" s="15" t="s">
+      <c r="E188" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" thickBot="1">
+    <row r="189" spans="1:7" ht="15.75" thickBot="1">
       <c r="A189" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B189" s="27">
+      <c r="B189" s="44" t="s">
+        <v>699</v>
+      </c>
+      <c r="D189" s="27">
         <v>1951</v>
       </c>
-      <c r="C189" s="15" t="s">
+      <c r="E189" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" thickBot="1">
+    <row r="190" spans="1:7" ht="15.75" thickBot="1">
       <c r="A190" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="B190" s="28">
+      <c r="B190" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D190" s="28">
         <v>1986</v>
       </c>
-      <c r="C190" s="14" t="s">
+      <c r="E190" s="14" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" thickBot="1">
+    <row r="191" spans="1:7" ht="15.75" thickBot="1">
       <c r="A191" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B191" s="32">
+      <c r="B191" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="C191" s="50" t="s">
+        <v>702</v>
+      </c>
+      <c r="D191" s="32">
         <v>1985</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="E191" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:7">
       <c r="A192" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B192" s="31">
+      <c r="B192" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="C192" s="50" t="s">
+        <v>702</v>
+      </c>
+      <c r="D192" s="31">
         <v>1985</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="E192" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75" thickBot="1">
+    <row r="193" spans="1:7" ht="15.75" thickBot="1">
       <c r="A193" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B193" s="32" t="s">
+      <c r="B193" s="52" t="s">
+        <v>703</v>
+      </c>
+      <c r="C193" s="54"/>
+      <c r="D193" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="E193" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-    </row>
-    <row r="194" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" thickBot="1">
       <c r="A194" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B194" s="47" t="s">
+        <v>703</v>
+      </c>
+      <c r="C194" s="16"/>
+      <c r="D194" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C194" s="16" t="s">
+      <c r="E194" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194" s="18"/>
+      <c r="G194" s="18"/>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B195" s="27">
+      <c r="B195" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="D195" s="27">
         <v>2002</v>
       </c>
-      <c r="C195" s="15" t="s">
+      <c r="E195" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-    </row>
-    <row r="196" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" thickBot="1">
       <c r="A196" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="C196" s="15" t="s">
+      <c r="B196" s="45" t="s">
+        <v>705</v>
+      </c>
+      <c r="E196" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-    </row>
-    <row r="197" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" thickBot="1">
       <c r="A197" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="B197" s="28">
+      <c r="B197" s="44" t="s">
+        <v>706</v>
+      </c>
+      <c r="D197" s="28">
         <v>1971</v>
       </c>
-      <c r="C197" s="14" t="s">
+      <c r="E197" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
-    </row>
-    <row r="198" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" thickBot="1">
       <c r="A198" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="B198" s="28">
+      <c r="B198" s="44" t="s">
+        <v>707</v>
+      </c>
+      <c r="D198" s="28">
         <v>1978</v>
       </c>
-      <c r="C198" s="14" t="s">
+      <c r="E198" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B199" s="27">
+      <c r="B199" s="45" t="s">
+        <v>708</v>
+      </c>
+      <c r="D199" s="27">
         <v>1992</v>
       </c>
-      <c r="C199" s="15" t="s">
+      <c r="E199" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B200" s="27">
+      <c r="B200" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="D200" s="27">
         <v>1980</v>
       </c>
-      <c r="C200" s="15" t="s">
+      <c r="E200" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
-    </row>
-    <row r="201" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" thickBot="1">
       <c r="A201" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="B201" s="27">
+      <c r="B201" s="45" t="s">
+        <v>581</v>
+      </c>
+      <c r="D201" s="27">
         <v>1990</v>
       </c>
-      <c r="C201" s="15" t="s">
+      <c r="E201" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-    </row>
-    <row r="202" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" thickBot="1">
       <c r="A202" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="B202" s="28">
+      <c r="B202" s="44" t="s">
+        <v>710</v>
+      </c>
+      <c r="D202" s="28">
         <v>1950</v>
       </c>
-      <c r="C202" s="14" t="s">
+      <c r="E202" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D202" s="16"/>
-      <c r="E202" s="16"/>
-    </row>
-    <row r="203" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F202" s="16"/>
+      <c r="G202" s="16"/>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" thickBot="1">
       <c r="A203" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="B203" s="27">
+      <c r="B203" s="45" t="s">
+        <v>605</v>
+      </c>
+      <c r="D203" s="27">
         <v>1967</v>
       </c>
-      <c r="C203" s="15" t="s">
+      <c r="E203" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75" thickBot="1">
+    <row r="204" spans="1:7" ht="15.75" thickBot="1">
       <c r="A204" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="B204" s="28">
+      <c r="B204" s="44" t="s">
+        <v>711</v>
+      </c>
+      <c r="D204" s="28">
         <v>1951</v>
       </c>
-      <c r="C204" s="14" t="s">
+      <c r="E204" s="14" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:7">
       <c r="A205" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B205" s="31">
+      <c r="B205" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="C205" s="50" t="s">
+        <v>713</v>
+      </c>
+      <c r="D205" s="31">
         <v>1977</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="E205" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:7">
       <c r="A206" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B206" s="32">
+      <c r="B206" s="52" t="s">
+        <v>712</v>
+      </c>
+      <c r="C206" s="52" t="s">
+        <v>713</v>
+      </c>
+      <c r="D206" s="32">
         <v>1977</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="E206" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:7">
       <c r="A207" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="B207" s="27">
+      <c r="B207" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="D207" s="27">
         <v>1978</v>
       </c>
-      <c r="C207" s="15" t="s">
+      <c r="E207" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B208" s="27">
+      <c r="B208" s="45" t="s">
+        <v>715</v>
+      </c>
+      <c r="D208" s="27">
         <v>1960</v>
       </c>
-      <c r="C208" s="15" t="s">
+      <c r="E208" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>131</v>
       </c>
-      <c r="B209" s="29" t="s">
+      <c r="B209" s="46" t="s">
+        <v>716</v>
+      </c>
+      <c r="C209" s="46" t="s">
+        <v>717</v>
+      </c>
+      <c r="D209" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C209" t="s">
+      <c r="E209" t="s">
         <v>133</v>
       </c>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="B210" s="27">
+      <c r="B210" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="D210" s="27">
         <v>1972</v>
       </c>
-      <c r="C210" s="15" t="s">
+      <c r="E210" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="B211" s="27">
+      <c r="B211" s="45" t="s">
+        <v>719</v>
+      </c>
+      <c r="D211" s="27">
         <v>1972</v>
       </c>
-      <c r="C211" s="15" t="s">
+      <c r="E211" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
-    </row>
-    <row r="212" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" thickBot="1">
       <c r="A212" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="B212" s="27">
+      <c r="B212" s="45" t="s">
+        <v>605</v>
+      </c>
+      <c r="D212" s="27">
         <v>1969</v>
       </c>
-      <c r="C212" s="15" t="s">
+      <c r="E212" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
-    </row>
-    <row r="213" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" thickBot="1">
       <c r="A213" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="B213" s="28">
+      <c r="B213" s="44" t="s">
+        <v>720</v>
+      </c>
+      <c r="D213" s="28">
         <v>1942</v>
       </c>
-      <c r="C213" s="14" t="s">
+      <c r="E213" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-    </row>
-    <row r="214" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" thickBot="1">
       <c r="A214" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="B214" s="28">
+      <c r="B214" s="44" t="s">
+        <v>721</v>
+      </c>
+      <c r="D214" s="28">
         <v>1980</v>
       </c>
-      <c r="C214" s="14" t="s">
+      <c r="E214" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-    </row>
-    <row r="215" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" thickBot="1">
       <c r="A215" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B215" s="28">
+      <c r="B215" s="44" t="s">
+        <v>722</v>
+      </c>
+      <c r="D215" s="28">
         <v>1974</v>
       </c>
-      <c r="C215" s="14" t="s">
+      <c r="E215" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
-    </row>
-    <row r="216" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" thickBot="1">
       <c r="A216" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B216" s="28">
+      <c r="B216" s="44" t="s">
+        <v>723</v>
+      </c>
+      <c r="D216" s="28">
         <v>1985</v>
       </c>
-      <c r="C216" s="14" t="s">
+      <c r="E216" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="D216" s="18"/>
-      <c r="E216" s="18"/>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216" s="18"/>
+      <c r="G216" s="18"/>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="B217" s="27">
+      <c r="B217" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="D217" s="27">
         <v>1979</v>
       </c>
-      <c r="C217" s="15" t="s">
+      <c r="E217" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-    </row>
-    <row r="218" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" thickBot="1">
       <c r="A218" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="B218" s="27">
+      <c r="B218" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="D218" s="27">
         <v>1996</v>
       </c>
-      <c r="C218" s="15" t="s">
+      <c r="E218" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-    </row>
-    <row r="219" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" thickBot="1">
       <c r="A219" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="B219" s="28">
+      <c r="B219" s="44" t="s">
+        <v>725</v>
+      </c>
+      <c r="D219" s="28">
         <v>1969</v>
       </c>
-      <c r="C219" s="14" t="s">
+      <c r="E219" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="D219" s="18"/>
-      <c r="E219" s="18"/>
-    </row>
-    <row r="220" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F219" s="18"/>
+      <c r="G219" s="18"/>
+    </row>
+    <row r="220" spans="1:7" ht="15.75" thickBot="1">
       <c r="A220" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="B220" s="28">
+      <c r="B220" s="44" t="s">
+        <v>726</v>
+      </c>
+      <c r="D220" s="28">
         <v>1971</v>
       </c>
-      <c r="C220" s="14" t="s">
+      <c r="E220" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="D220" s="18"/>
-      <c r="E220" s="18"/>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220" s="18"/>
+      <c r="G220" s="18"/>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="B221" s="27">
+      <c r="B221" s="45" t="s">
+        <v>727</v>
+      </c>
+      <c r="D221" s="27">
         <v>1973</v>
       </c>
-      <c r="C221" s="15" t="s">
+      <c r="E221" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-    </row>
-    <row r="222" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="1:7" ht="15.75" thickBot="1">
       <c r="A222" t="s">
         <v>504</v>
       </c>
-      <c r="B222" s="29" t="s">
+      <c r="B222" s="46" t="s">
+        <v>728</v>
+      </c>
+      <c r="C222" s="46" t="s">
+        <v>729</v>
+      </c>
+      <c r="D222" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C222" t="s">
+      <c r="E222" t="s">
         <v>505</v>
       </c>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-    </row>
-    <row r="223" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" spans="1:7" ht="15.75" thickBot="1">
       <c r="A223" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="B223" s="28">
+      <c r="B223" s="44" t="s">
+        <v>647</v>
+      </c>
+      <c r="D223" s="28">
         <v>1969</v>
       </c>
-      <c r="C223" s="14" t="s">
+      <c r="E223" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="B224" s="27">
+      <c r="B224" s="45" t="s">
+        <v>730</v>
+      </c>
+      <c r="D224" s="27">
         <v>1969</v>
       </c>
-      <c r="C224" s="15" t="s">
+      <c r="E224" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-    </row>
-    <row r="225" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" spans="1:7" ht="15.75" thickBot="1">
       <c r="A225" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="B225" s="27">
+      <c r="B225" s="45" t="s">
+        <v>731</v>
+      </c>
+      <c r="D225" s="27">
         <v>1956</v>
       </c>
-      <c r="C225" s="15" t="s">
+      <c r="E225" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-    </row>
-    <row r="226" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" thickBot="1">
       <c r="A226" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="B226" s="30" t="s">
+      <c r="B226" s="47" t="s">
+        <v>732</v>
+      </c>
+      <c r="C226" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="D226" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="C226" s="16" t="s">
+      <c r="E226" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="D226" s="18"/>
-      <c r="E226" s="18"/>
-    </row>
-    <row r="227" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F226" s="18"/>
+      <c r="G226" s="18"/>
+    </row>
+    <row r="227" spans="1:7" ht="15.75" thickBot="1">
       <c r="A227" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="B227" s="28">
+      <c r="B227" s="44" t="s">
+        <v>723</v>
+      </c>
+      <c r="D227" s="28">
         <v>1995</v>
       </c>
-      <c r="C227" s="14" t="s">
+      <c r="E227" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-    </row>
-    <row r="228" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+    </row>
+    <row r="228" spans="1:7" ht="15.75" thickBot="1">
       <c r="A228" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="B228" s="28">
+      <c r="B228" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="D228" s="28">
         <v>1981</v>
       </c>
-      <c r="C228" s="14" t="s">
+      <c r="E228" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="B229" s="27">
+      <c r="B229" s="45" t="s">
+        <v>734</v>
+      </c>
+      <c r="D229" s="27">
         <v>1978</v>
       </c>
-      <c r="C229" s="15" t="s">
+      <c r="E229" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B230" s="27">
+      <c r="B230" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="D230" s="27">
         <v>1957</v>
       </c>
-      <c r="C230" s="15" t="s">
+      <c r="E230" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="B231" s="27">
+      <c r="B231" s="45" t="s">
+        <v>735</v>
+      </c>
+      <c r="D231" s="27">
         <v>1972</v>
       </c>
-      <c r="C231" s="15" t="s">
+      <c r="E231" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-    </row>
-    <row r="232" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" thickBot="1">
       <c r="A232" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B232" s="32">
+      <c r="B232" s="52" t="s">
+        <v>736</v>
+      </c>
+      <c r="C232" s="52" t="s">
+        <v>737</v>
+      </c>
+      <c r="D232" s="32">
         <v>2007</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="E232" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75" thickBot="1">
+    <row r="233" spans="1:7" ht="15.75" thickBot="1">
       <c r="A233" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B233" s="31">
+      <c r="B233" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="C233" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="D233" s="31">
         <v>2007</v>
       </c>
-      <c r="C233" s="10" t="s">
+      <c r="E233" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75" thickBot="1">
+    <row r="234" spans="1:7" ht="15.75" thickBot="1">
       <c r="A234" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="B234" s="28">
+      <c r="B234" s="44" t="s">
+        <v>738</v>
+      </c>
+      <c r="D234" s="28">
         <v>1970</v>
       </c>
-      <c r="C234" s="14" t="s">
+      <c r="E234" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
-    </row>
-    <row r="235" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" spans="1:7" ht="15.75" thickBot="1">
       <c r="A235" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="B235" s="29" t="s">
+      <c r="B235" s="47" t="s">
+        <v>739</v>
+      </c>
+      <c r="C235" s="47" t="s">
+        <v>740</v>
+      </c>
+      <c r="D235" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="C235" t="s">
+      <c r="E235" t="s">
         <v>450</v>
       </c>
-      <c r="D235" s="12"/>
-      <c r="E235" s="10"/>
-    </row>
-    <row r="236" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F235" s="12"/>
+      <c r="G235" s="10"/>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" thickBot="1">
       <c r="A236" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B236" s="32">
+      <c r="B236" s="49" t="s">
+        <v>741</v>
+      </c>
+      <c r="C236" s="49" t="s">
+        <v>742</v>
+      </c>
+      <c r="D236" s="32">
         <v>1985</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="E236" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15.75" thickBot="1">
+    <row r="237" spans="1:7" ht="15.75" thickBot="1">
       <c r="A237" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B237" s="31">
+      <c r="B237" s="48" t="s">
+        <v>741</v>
+      </c>
+      <c r="C237" s="48" t="s">
+        <v>742</v>
+      </c>
+      <c r="D237" s="31">
         <v>1985</v>
       </c>
-      <c r="C237" s="10" t="s">
+      <c r="E237" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15.75" thickBot="1">
+    <row r="238" spans="1:7" ht="15.75" thickBot="1">
       <c r="A238" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="B238" s="27">
+      <c r="B238" s="45" t="s">
+        <v>743</v>
+      </c>
+      <c r="D238" s="27">
         <v>1918</v>
       </c>
-      <c r="C238" s="15" t="s">
+      <c r="E238" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="D238" s="12"/>
-      <c r="E238" s="10"/>
-    </row>
-    <row r="239" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F238" s="12"/>
+      <c r="G238" s="10"/>
+    </row>
+    <row r="239" spans="1:7" ht="15.75" thickBot="1">
       <c r="A239" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B239" s="31">
+      <c r="B239" s="48" t="s">
+        <v>744</v>
+      </c>
+      <c r="C239" s="48" t="s">
+        <v>745</v>
+      </c>
+      <c r="D239" s="31">
         <v>1979</v>
       </c>
-      <c r="C239" s="10" t="s">
+      <c r="E239" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75" thickBot="1">
+    <row r="240" spans="1:7" ht="15.75" thickBot="1">
       <c r="A240" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B240" s="32">
+      <c r="B240" s="52" t="s">
+        <v>744</v>
+      </c>
+      <c r="C240" s="52" t="s">
+        <v>745</v>
+      </c>
+      <c r="D240" s="32">
         <v>1979</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="E240" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" thickBot="1">
+    <row r="241" spans="1:7" ht="15.75" thickBot="1">
       <c r="A241" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="B241" s="28">
+      <c r="B241" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="D241" s="28">
         <v>1974</v>
       </c>
-      <c r="C241" s="14" t="s">
+      <c r="E241" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" thickBot="1">
+    <row r="242" spans="1:7" ht="15.75" thickBot="1">
       <c r="A242" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B242" s="32">
+      <c r="B242" s="49" t="s">
+        <v>747</v>
+      </c>
+      <c r="C242" s="49" t="s">
+        <v>748</v>
+      </c>
+      <c r="D242" s="32">
         <v>1974</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="E242" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" thickBot="1">
+    <row r="243" spans="1:7" ht="15.75" thickBot="1">
       <c r="A243" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B243" s="31">
+      <c r="B243" s="48" t="s">
+        <v>747</v>
+      </c>
+      <c r="C243" s="48" t="s">
+        <v>748</v>
+      </c>
+      <c r="D243" s="31">
         <v>1974</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="E243" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" thickBot="1">
+    <row r="244" spans="1:7" ht="15.75" thickBot="1">
       <c r="A244" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="B244" s="27">
+      <c r="B244" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="D244" s="27">
         <v>2008</v>
       </c>
-      <c r="C244" s="15" t="s">
+      <c r="E244" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="D244" s="12"/>
-      <c r="E244" s="10"/>
-    </row>
-    <row r="245" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F244" s="12"/>
+      <c r="G244" s="10"/>
+    </row>
+    <row r="245" spans="1:7" ht="15.75" thickBot="1">
       <c r="A245" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="B245" s="28">
+      <c r="B245" s="44" t="s">
+        <v>750</v>
+      </c>
+      <c r="D245" s="28">
         <v>1991</v>
       </c>
-      <c r="C245" s="14" t="s">
+      <c r="E245" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="D245" s="12"/>
-      <c r="E245" s="10"/>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="F245" s="12"/>
+      <c r="G245" s="10"/>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="B246" s="27">
+      <c r="B246" s="45" t="s">
+        <v>751</v>
+      </c>
+      <c r="D246" s="27">
         <v>1973</v>
       </c>
-      <c r="C246" s="15" t="s">
+      <c r="E246" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="D246" s="12"/>
-      <c r="E246" s="10"/>
-    </row>
-    <row r="247" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F246" s="12"/>
+      <c r="G246" s="10"/>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" thickBot="1">
       <c r="A247" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B247" s="31">
+      <c r="B247" s="50" t="s">
+        <v>752</v>
+      </c>
+      <c r="C247" s="50" t="s">
+        <v>753</v>
+      </c>
+      <c r="D247" s="31">
         <v>1978</v>
       </c>
-      <c r="C247" s="10" t="s">
+      <c r="E247" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" thickBot="1">
+    <row r="248" spans="1:7" ht="15.75" thickBot="1">
       <c r="A248" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B248" s="34">
+      <c r="B248" s="49" t="s">
+        <v>752</v>
+      </c>
+      <c r="C248" s="49" t="s">
+        <v>753</v>
+      </c>
+      <c r="D248" s="34">
         <v>1978</v>
       </c>
-      <c r="C248" s="18" t="s">
+      <c r="E248" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" thickBot="1">
+    <row r="249" spans="1:7" ht="15.75" thickBot="1">
       <c r="A249" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="B249" s="28">
+      <c r="B249" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="D249" s="28">
         <v>1982</v>
       </c>
-      <c r="C249" s="14" t="s">
+      <c r="E249" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="D249" s="4"/>
-      <c r="E249" s="4"/>
-    </row>
-    <row r="250" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" thickBot="1">
       <c r="A250" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="B250" s="28">
+      <c r="B250" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="D250" s="28">
         <v>1943</v>
       </c>
-      <c r="C250" s="14" t="s">
+      <c r="E250" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="D250" s="4"/>
-      <c r="E250" s="4"/>
-    </row>
-    <row r="251" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" thickBot="1">
       <c r="A251" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="B251" s="28">
+      <c r="B251" s="44" t="s">
+        <v>756</v>
+      </c>
+      <c r="D251" s="28">
         <v>1948</v>
       </c>
-      <c r="C251" s="14" t="s">
+      <c r="E251" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="D251" s="4"/>
-      <c r="E251" s="4"/>
-    </row>
-    <row r="252" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+    </row>
+    <row r="252" spans="1:7" ht="15.75" thickBot="1">
       <c r="A252" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B252" s="28">
+      <c r="B252" s="44" t="s">
+        <v>757</v>
+      </c>
+      <c r="D252" s="28">
         <v>1984</v>
       </c>
-      <c r="C252" s="14" t="s">
+      <c r="E252" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
-    </row>
-    <row r="253" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+    </row>
+    <row r="253" spans="1:7" ht="15.75" thickBot="1">
       <c r="A253" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B253" s="32">
+      <c r="B253" s="49" t="s">
+        <v>758</v>
+      </c>
+      <c r="C253" s="49" t="s">
+        <v>759</v>
+      </c>
+      <c r="D253" s="32">
         <v>1984</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="E253" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" thickBot="1">
+    <row r="254" spans="1:7" ht="15.75" thickBot="1">
       <c r="A254" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B254" s="31">
+      <c r="B254" s="48" t="s">
+        <v>758</v>
+      </c>
+      <c r="C254" s="48" t="s">
+        <v>759</v>
+      </c>
+      <c r="D254" s="31">
         <v>1984</v>
       </c>
-      <c r="C254" s="10" t="s">
+      <c r="E254" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" thickBot="1">
+    <row r="255" spans="1:7" ht="15.75" thickBot="1">
       <c r="A255" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="B255" s="28">
+      <c r="B255" s="44" t="s">
+        <v>760</v>
+      </c>
+      <c r="D255" s="28">
         <v>1977</v>
       </c>
-      <c r="C255" s="14" t="s">
+      <c r="E255" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="D255" s="12"/>
-      <c r="E255" s="10"/>
-    </row>
-    <row r="256" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F255" s="12"/>
+      <c r="G255" s="10"/>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" thickBot="1">
       <c r="A256" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B256" s="35" t="s">
+      <c r="B256" s="48" t="s">
+        <v>761</v>
+      </c>
+      <c r="D256" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C256" s="6" t="s">
+      <c r="E256" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15.75" thickBot="1">
+    <row r="257" spans="1:6" ht="15.75" thickBot="1">
       <c r="A257" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="B257" s="28">
+      <c r="B257" s="44" t="s">
+        <v>614</v>
+      </c>
+      <c r="D257" s="28">
         <v>1960</v>
       </c>
-      <c r="C257" s="14" t="s">
+      <c r="E257" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="D257" s="16"/>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="F257" s="16"/>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="B258" s="27">
+      <c r="B258" s="45" t="s">
+        <v>614</v>
+      </c>
+      <c r="D258" s="27">
         <v>1960</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="E258" s="15" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:6">
       <c r="A259" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="B259" s="27">
+      <c r="B259" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="D259" s="27">
         <v>1968</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="E259" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15.75" thickBot="1">
+    <row r="260" spans="1:6" ht="15.75" thickBot="1">
       <c r="A260" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="B260" s="27">
+      <c r="B260" s="45" t="s">
+        <v>614</v>
+      </c>
+      <c r="D260" s="27">
         <v>1970</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="E260" s="15" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15.75" thickBot="1">
+    <row r="261" spans="1:6" ht="15.75" thickBot="1">
       <c r="A261" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B261" s="33" t="s">
+      <c r="B261" s="49" t="s">
+        <v>762</v>
+      </c>
+      <c r="C261" s="49" t="s">
+        <v>763</v>
+      </c>
+      <c r="D261" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="E261" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15.75" thickBot="1">
+    <row r="262" spans="1:6" ht="15.75" thickBot="1">
       <c r="A262" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B262" s="29" t="s">
+      <c r="B262" s="47" t="s">
+        <v>762</v>
+      </c>
+      <c r="C262" s="47" t="s">
+        <v>763</v>
+      </c>
+      <c r="D262" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C262" s="13" t="s">
+      <c r="E262" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15.75" thickBot="1">
+    <row r="263" spans="1:6" ht="15.75" thickBot="1">
       <c r="A263" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="B263" s="28">
+      <c r="B263" s="44" t="s">
+        <v>764</v>
+      </c>
+      <c r="D263" s="28">
         <v>1959</v>
       </c>
-      <c r="C263" s="14" t="s">
+      <c r="E263" s="14" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15.75" thickBot="1">
+    <row r="264" spans="1:6" ht="15.75" thickBot="1">
       <c r="A264" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="B264" s="28">
+      <c r="B264" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="D264" s="28">
         <v>1983</v>
       </c>
-      <c r="C264" s="14" t="s">
+      <c r="E264" s="14" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15.75" thickBot="1">
+    <row r="265" spans="1:6" ht="15.75" thickBot="1">
       <c r="A265" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="B265" s="28">
+      <c r="B265" s="44" t="s">
+        <v>765</v>
+      </c>
+      <c r="D265" s="28">
         <v>1959</v>
       </c>
-      <c r="C265" s="14" t="s">
+      <c r="E265" s="14" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:6">
       <c r="A266" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="B266" s="27">
+      <c r="B266" s="45" t="s">
+        <v>766</v>
+      </c>
+      <c r="D266" s="27">
         <v>1978</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="E266" s="15" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15.75" thickBot="1">
+    <row r="267" spans="1:6" ht="15.75" thickBot="1">
       <c r="A267" t="s">
         <v>509</v>
       </c>
-      <c r="B267" s="29" t="s">
+      <c r="B267" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="C267" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="D267" s="29" t="s">
         <v>510</v>
       </c>
-      <c r="C267" t="s">
+      <c r="E267" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15.75" thickBot="1">
+    <row r="268" spans="1:6" ht="15.75" thickBot="1">
       <c r="A268" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="B268" s="28">
+      <c r="B268" s="44" t="s">
+        <v>769</v>
+      </c>
+      <c r="D268" s="28">
         <v>1985</v>
       </c>
-      <c r="C268" s="14" t="s">
+      <c r="E268" s="14" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>512</v>
       </c>
-      <c r="B269" s="29" t="s">
+      <c r="B269" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="C269" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="D269" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="C269" t="s">
+      <c r="E269" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15.75" thickBot="1">
+    <row r="270" spans="1:6" ht="15.75" thickBot="1">
       <c r="A270" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="B270" s="27">
+      <c r="B270" s="45" t="s">
+        <v>772</v>
+      </c>
+      <c r="D270" s="27">
         <v>1970</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="E270" s="15" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15.75" thickBot="1">
+    <row r="271" spans="1:6" ht="15.75" thickBot="1">
       <c r="A271" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="B271" s="28">
+      <c r="B271" s="44" t="s">
+        <v>773</v>
+      </c>
+      <c r="D271" s="28">
         <v>1997</v>
       </c>
-      <c r="C271" s="14" t="s">
+      <c r="E271" s="14" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:6">
       <c r="A272" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="B272" s="27">
+      <c r="B272" s="45" t="s">
+        <v>774</v>
+      </c>
+      <c r="D272" s="27">
         <v>1975</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="E272" s="15" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" thickBot="1">
+    <row r="273" spans="1:5" ht="15.75" thickBot="1">
       <c r="A273" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="B273" s="27">
+      <c r="B273" s="45" t="s">
+        <v>774</v>
+      </c>
+      <c r="D273" s="27">
         <v>1975</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="E273" s="15" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" thickBot="1">
+    <row r="274" spans="1:5" ht="15.75" thickBot="1">
       <c r="A274" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="B274" s="28">
+      <c r="B274" s="44" t="s">
+        <v>775</v>
+      </c>
+      <c r="D274" s="28">
         <v>1969</v>
       </c>
-      <c r="C274" s="14" t="s">
+      <c r="E274" s="14" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:5">
       <c r="A275" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="B275" s="27">
+      <c r="B275" s="45" t="s">
+        <v>776</v>
+      </c>
+      <c r="D275" s="27">
         <v>1957</v>
       </c>
-      <c r="C275" s="15" t="s">
+      <c r="E275" s="15" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="277" spans="1:3" ht="15.75" thickBot="1">
+    <row r="276" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="277" spans="1:5" ht="15.75" thickBot="1">
       <c r="A277" s="14"/>
-    </row>
-    <row r="278" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B277" s="15"/>
+      <c r="C277" s="15"/>
+    </row>
+    <row r="278" spans="1:5" ht="15.75" thickBot="1">
       <c r="A278" s="14"/>
-    </row>
-    <row r="279" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B278" s="15"/>
+      <c r="C278" s="15"/>
+    </row>
+    <row r="279" spans="1:5" ht="15.75" thickBot="1">
       <c r="A279" s="16"/>
-      <c r="B279" s="36"/>
-      <c r="C279" s="11"/>
-    </row>
-    <row r="280" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B279" s="40"/>
+      <c r="C279" s="40"/>
+      <c r="D279" s="36"/>
+      <c r="E279" s="11"/>
+    </row>
+    <row r="280" spans="1:5" ht="15.75" thickBot="1">
       <c r="A280" s="16"/>
-      <c r="B280" s="36"/>
-      <c r="C280" s="11"/>
-    </row>
-    <row r="281" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B280" s="40"/>
+      <c r="C280" s="40"/>
+      <c r="D280" s="36"/>
+      <c r="E280" s="11"/>
+    </row>
+    <row r="281" spans="1:5" ht="15.75" thickBot="1">
       <c r="A281" s="16"/>
-      <c r="B281" s="36"/>
-      <c r="C281" s="11"/>
-    </row>
-    <row r="282" spans="1:3">
+      <c r="B281" s="40"/>
+      <c r="C281" s="40"/>
+      <c r="D281" s="36"/>
+      <c r="E281" s="11"/>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" s="15"/>
-      <c r="C282" s="11"/>
-    </row>
-    <row r="283" spans="1:3">
+      <c r="B282" s="15"/>
+      <c r="C282" s="15"/>
+      <c r="E282" s="11"/>
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" s="15"/>
-      <c r="C283" s="3"/>
-    </row>
-    <row r="284" spans="1:3">
+      <c r="B283" s="15"/>
+      <c r="C283" s="15"/>
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" s="15"/>
-      <c r="C284" s="3"/>
-    </row>
-    <row r="285" spans="1:3">
+      <c r="B284" s="15"/>
+      <c r="C284" s="15"/>
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" s="15"/>
-      <c r="C285" s="3"/>
-    </row>
-    <row r="286" spans="1:3">
+      <c r="B285" s="15"/>
+      <c r="C285" s="15"/>
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" s="15"/>
-      <c r="C286" s="3"/>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="B286" s="15"/>
+      <c r="C286" s="15"/>
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" s="15"/>
-      <c r="C287" s="3"/>
-    </row>
-    <row r="288" spans="1:3">
+      <c r="B287" s="15"/>
+      <c r="C287" s="15"/>
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288" s="15"/>
-      <c r="C288" s="3"/>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="B288" s="15"/>
+      <c r="C288" s="15"/>
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" s="15"/>
-      <c r="C289" s="3"/>
-    </row>
-    <row r="290" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B289" s="15"/>
+      <c r="C289" s="15"/>
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" spans="1:7" ht="15.75" thickBot="1">
       <c r="A290" s="15"/>
-      <c r="C290" s="3"/>
-    </row>
-    <row r="291" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B290" s="15"/>
+      <c r="C290" s="15"/>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" spans="1:7" ht="15.75" thickBot="1">
       <c r="A291" s="18"/>
-      <c r="B291" s="32"/>
-      <c r="C291" s="4"/>
-    </row>
-    <row r="292" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B291" s="41"/>
+      <c r="C291" s="41"/>
+      <c r="D291" s="32"/>
+      <c r="E291" s="4"/>
+    </row>
+    <row r="292" spans="1:7" ht="15.75" thickBot="1">
       <c r="A292" s="15"/>
-      <c r="C292" s="4"/>
-    </row>
-    <row r="293" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B292" s="15"/>
+      <c r="C292" s="15"/>
+      <c r="E292" s="4"/>
+    </row>
+    <row r="293" spans="1:7" ht="15.75" thickBot="1">
       <c r="A293" s="16"/>
-      <c r="B293" s="30"/>
-      <c r="C293" s="18"/>
-      <c r="D293" s="16"/>
-      <c r="E293" s="16"/>
-    </row>
-    <row r="294" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B293" s="16"/>
+      <c r="C293" s="16"/>
+      <c r="D293" s="30"/>
+      <c r="E293" s="18"/>
+      <c r="F293" s="16"/>
+      <c r="G293" s="16"/>
+    </row>
+    <row r="294" spans="1:7" ht="15.75" thickBot="1">
       <c r="A294" s="14"/>
-      <c r="C294" s="4"/>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="B294" s="15"/>
+      <c r="C294" s="15"/>
+      <c r="E294" s="4"/>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" s="15"/>
-      <c r="C295" s="4"/>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
-    </row>
-    <row r="297" spans="1:5" ht="15.75" thickBot="1">
-      <c r="C297" s="10"/>
-      <c r="D297" s="10"/>
-    </row>
-    <row r="298" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B295" s="15"/>
+      <c r="C295" s="15"/>
+      <c r="E295" s="4"/>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="E296" s="10"/>
+      <c r="F296" s="10"/>
+    </row>
+    <row r="297" spans="1:7" ht="15.75" thickBot="1">
+      <c r="E297" s="10"/>
+      <c r="F297" s="10"/>
+    </row>
+    <row r="298" spans="1:7" ht="15.75" thickBot="1">
       <c r="A298" s="16"/>
-      <c r="C298" s="10"/>
-      <c r="D298" s="10"/>
-    </row>
-    <row r="299" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B298" s="40"/>
+      <c r="C298" s="40"/>
+      <c r="E298" s="10"/>
+      <c r="F298" s="10"/>
+    </row>
+    <row r="299" spans="1:7" ht="15.75" thickBot="1">
       <c r="A299" s="9"/>
-      <c r="B299" s="36"/>
-      <c r="C299" s="10"/>
-      <c r="D299" s="10"/>
-    </row>
-    <row r="300" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B299" s="22"/>
+      <c r="C299" s="22"/>
+      <c r="D299" s="36"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="10"/>
+    </row>
+    <row r="300" spans="1:7" ht="15.75" thickBot="1">
       <c r="A300" s="9"/>
-      <c r="B300" s="36"/>
-      <c r="C300" s="10"/>
-      <c r="D300" s="10"/>
-    </row>
-    <row r="301" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B300" s="22"/>
+      <c r="C300" s="22"/>
+      <c r="D300" s="36"/>
+      <c r="E300" s="10"/>
+      <c r="F300" s="10"/>
+    </row>
+    <row r="301" spans="1:7" ht="15.75" thickBot="1">
       <c r="A301" s="9"/>
-      <c r="B301" s="36"/>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10"/>
-    </row>
-    <row r="302" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B301" s="22"/>
+      <c r="C301" s="22"/>
+      <c r="D301" s="36"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="10"/>
+    </row>
+    <row r="302" spans="1:7" ht="15.75" thickBot="1">
       <c r="A302" s="16"/>
-      <c r="D302" s="4"/>
-      <c r="E302" s="4"/>
-    </row>
-    <row r="303" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B302" s="40"/>
+      <c r="C302" s="40"/>
+      <c r="F302" s="4"/>
+      <c r="G302" s="4"/>
+    </row>
+    <row r="303" spans="1:7" ht="15.75" thickBot="1">
       <c r="A303" s="16"/>
-      <c r="C303" s="3"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="C304" s="3"/>
-      <c r="D304" s="4"/>
-      <c r="E304" s="4"/>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="C305" s="3"/>
-      <c r="D305" s="4"/>
-      <c r="E305" s="4"/>
-    </row>
-    <row r="306" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B303" s="40"/>
+      <c r="C303" s="40"/>
+      <c r="E303" s="3"/>
+      <c r="F303" s="4"/>
+      <c r="G303" s="4"/>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="E304" s="3"/>
+      <c r="F304" s="4"/>
+      <c r="G304" s="4"/>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="E305" s="3"/>
+      <c r="F305" s="4"/>
+      <c r="G305" s="4"/>
+    </row>
+    <row r="306" spans="1:7" ht="15.75" thickBot="1">
       <c r="A306" s="4"/>
-      <c r="B306" s="37"/>
-      <c r="C306" s="3"/>
-      <c r="D306" s="4"/>
-      <c r="E306" s="4"/>
-    </row>
-    <row r="307" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B306" s="4"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="37"/>
+      <c r="E306" s="3"/>
+      <c r="F306" s="4"/>
+      <c r="G306" s="4"/>
+    </row>
+    <row r="307" spans="1:7" ht="15.75" thickBot="1">
       <c r="A307" s="18"/>
-      <c r="B307" s="37"/>
-      <c r="C307" s="3"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-    </row>
-    <row r="308" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B307" s="41"/>
+      <c r="C307" s="41"/>
+      <c r="D307" s="37"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="4"/>
+      <c r="G307" s="4"/>
+    </row>
+    <row r="308" spans="1:7" ht="15.75" thickBot="1">
       <c r="A308" s="14"/>
-      <c r="B308" s="30"/>
-      <c r="C308" s="26"/>
-      <c r="D308" s="18"/>
-      <c r="E308" s="18"/>
-    </row>
-    <row r="309" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B308" s="14"/>
+      <c r="C308" s="14"/>
+      <c r="D308" s="30"/>
+      <c r="E308" s="26"/>
+      <c r="F308" s="18"/>
+      <c r="G308" s="18"/>
+    </row>
+    <row r="309" spans="1:7" ht="15.75" thickBot="1">
       <c r="A309" s="15"/>
-      <c r="C309" s="3"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-    </row>
-    <row r="310" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B309" s="15"/>
+      <c r="C309" s="15"/>
+      <c r="E309" s="3"/>
+      <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
+    </row>
+    <row r="310" spans="1:7" ht="15.75" thickBot="1">
       <c r="A310" s="14"/>
-      <c r="C310" s="3"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-    </row>
-    <row r="311" spans="1:5">
+      <c r="B310" s="15"/>
+      <c r="C310" s="15"/>
+      <c r="E310" s="3"/>
+      <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" s="15"/>
-      <c r="C311" s="3"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-    </row>
-    <row r="312" spans="1:5">
+      <c r="B311" s="15"/>
+      <c r="C311" s="15"/>
+      <c r="E311" s="3"/>
+      <c r="F311" s="4"/>
+      <c r="G311" s="4"/>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" s="15"/>
-      <c r="C312" s="3"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-    </row>
-    <row r="313" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B312" s="15"/>
+      <c r="C312" s="15"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="4"/>
+      <c r="G312" s="4"/>
+    </row>
+    <row r="313" spans="1:7" ht="15.75" thickBot="1">
       <c r="A313" s="15"/>
-      <c r="C313" s="3"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-    </row>
-    <row r="314" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B313" s="15"/>
+      <c r="C313" s="15"/>
+      <c r="E313" s="3"/>
+      <c r="F313" s="4"/>
+      <c r="G313" s="4"/>
+    </row>
+    <row r="314" spans="1:7" ht="15.75" thickBot="1">
       <c r="A314" s="16"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
-    </row>
-    <row r="315" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B314" s="40"/>
+      <c r="C314" s="40"/>
+      <c r="F314" s="4"/>
+      <c r="G314" s="4"/>
+    </row>
+    <row r="315" spans="1:7" ht="15.75" thickBot="1">
       <c r="A315" s="16"/>
-      <c r="C315" s="3"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-    </row>
-    <row r="316" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B315" s="40"/>
+      <c r="C315" s="40"/>
+      <c r="E315" s="3"/>
+      <c r="F315" s="4"/>
+      <c r="G315" s="4"/>
+    </row>
+    <row r="316" spans="1:7" ht="15.75" thickBot="1">
       <c r="A316" s="16"/>
-      <c r="C316" s="3"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
-    </row>
-    <row r="317" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B316" s="40"/>
+      <c r="C316" s="40"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="4"/>
+      <c r="G316" s="4"/>
+    </row>
+    <row r="317" spans="1:7" ht="15.75" thickBot="1">
       <c r="A317" s="16"/>
-      <c r="C317" s="3"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
-    </row>
-    <row r="318" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B317" s="40"/>
+      <c r="C317" s="40"/>
+      <c r="E317" s="3"/>
+      <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
+    </row>
+    <row r="318" spans="1:7" ht="15.75" thickBot="1">
       <c r="A318" s="16"/>
-      <c r="C318" s="3"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="4"/>
-    </row>
-    <row r="319" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B318" s="40"/>
+      <c r="C318" s="40"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="4"/>
+      <c r="G318" s="4"/>
+    </row>
+    <row r="319" spans="1:7" ht="15.75" thickBot="1">
       <c r="A319" s="16"/>
-      <c r="C319" s="3"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="C320" s="3"/>
-      <c r="D320" s="4"/>
-      <c r="E320" s="4"/>
-    </row>
-    <row r="321" spans="1:5">
+      <c r="B319" s="40"/>
+      <c r="C319" s="40"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="4"/>
+      <c r="G319" s="4"/>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="E320" s="3"/>
+      <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" s="15"/>
-      <c r="C321" s="3"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="4"/>
-    </row>
-    <row r="322" spans="1:5">
+      <c r="B321" s="15"/>
+      <c r="C321" s="15"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322" s="15"/>
-      <c r="C322" s="3"/>
-      <c r="D322" s="4"/>
-      <c r="E322" s="4"/>
-    </row>
-    <row r="323" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B322" s="15"/>
+      <c r="C322" s="15"/>
+      <c r="E322" s="3"/>
+      <c r="F322" s="4"/>
+      <c r="G322" s="4"/>
+    </row>
+    <row r="323" spans="1:7" ht="15.75" thickBot="1">
       <c r="A323" s="15"/>
-      <c r="C323" s="3"/>
-      <c r="D323" s="4"/>
-      <c r="E323" s="4"/>
-    </row>
-    <row r="324" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B323" s="15"/>
+      <c r="C323" s="15"/>
+      <c r="E323" s="3"/>
+      <c r="F323" s="4"/>
+      <c r="G323" s="4"/>
+    </row>
+    <row r="324" spans="1:7" ht="15.75" thickBot="1">
       <c r="A324" s="14"/>
-      <c r="C324" s="3"/>
-      <c r="D324" s="4"/>
-      <c r="E324" s="4"/>
-    </row>
-    <row r="325" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B324" s="15"/>
+      <c r="C324" s="15"/>
+      <c r="E324" s="3"/>
+      <c r="F324" s="4"/>
+      <c r="G324" s="4"/>
+    </row>
+    <row r="325" spans="1:7" ht="15.75" thickBot="1">
       <c r="A325" s="14"/>
-      <c r="C325" s="3"/>
-      <c r="D325" s="4"/>
-      <c r="E325" s="4"/>
-    </row>
-    <row r="326" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B325" s="15"/>
+      <c r="C325" s="15"/>
+      <c r="E325" s="3"/>
+      <c r="F325" s="4"/>
+      <c r="G325" s="4"/>
+    </row>
+    <row r="326" spans="1:7" ht="15.75" thickBot="1">
       <c r="A326" s="14"/>
-      <c r="C326" s="3"/>
-      <c r="D326" s="4"/>
-      <c r="E326" s="4"/>
-    </row>
-    <row r="327" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B326" s="15"/>
+      <c r="C326" s="15"/>
+      <c r="E326" s="3"/>
+      <c r="F326" s="4"/>
+      <c r="G326" s="4"/>
+    </row>
+    <row r="327" spans="1:7" ht="15.75" thickBot="1">
       <c r="A327" s="14"/>
-      <c r="C327" s="3"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="4"/>
-    </row>
-    <row r="328" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B327" s="15"/>
+      <c r="C327" s="15"/>
+      <c r="E327" s="3"/>
+      <c r="F327" s="4"/>
+      <c r="G327" s="4"/>
+    </row>
+    <row r="328" spans="1:7" ht="15.75" thickBot="1">
       <c r="A328" s="16"/>
-      <c r="C328" s="3"/>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
-    </row>
-    <row r="329" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B328" s="40"/>
+      <c r="C328" s="40"/>
+      <c r="E328" s="3"/>
+      <c r="F328" s="4"/>
+      <c r="G328" s="4"/>
+    </row>
+    <row r="329" spans="1:7" ht="15.75" thickBot="1">
       <c r="A329" s="16"/>
-      <c r="C329" s="3"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
-    </row>
-    <row r="330" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B329" s="40"/>
+      <c r="C329" s="40"/>
+      <c r="E329" s="3"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="4"/>
+    </row>
+    <row r="330" spans="1:7" ht="15.75" thickBot="1">
       <c r="A330" s="16"/>
-    </row>
-    <row r="331" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B330" s="40"/>
+      <c r="C330" s="40"/>
+    </row>
+    <row r="331" spans="1:7" ht="15.75" thickBot="1">
       <c r="A331" s="16"/>
-    </row>
-    <row r="332" spans="1:5" ht="15.75" thickBot="1">
-      <c r="D332" s="4"/>
-      <c r="E332" s="4"/>
-    </row>
-    <row r="333" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B331" s="40"/>
+      <c r="C331" s="40"/>
+    </row>
+    <row r="332" spans="1:7" ht="15.75" thickBot="1">
+      <c r="F332" s="4"/>
+      <c r="G332" s="4"/>
+    </row>
+    <row r="333" spans="1:7" ht="15.75" thickBot="1">
       <c r="A333" s="16"/>
-      <c r="D333" s="4"/>
-      <c r="E333" s="4"/>
-    </row>
-    <row r="334" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B333" s="40"/>
+      <c r="C333" s="40"/>
+      <c r="F333" s="4"/>
+      <c r="G333" s="4"/>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" thickBot="1">
       <c r="A334" s="18"/>
-      <c r="B334" s="32"/>
-      <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
+      <c r="B334" s="41"/>
+      <c r="C334" s="41"/>
+      <c r="D334" s="32"/>
       <c r="E334" s="4"/>
-    </row>
-    <row r="335" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F334" s="4"/>
+      <c r="G334" s="4"/>
+    </row>
+    <row r="335" spans="1:7" ht="15.75" thickBot="1">
       <c r="A335" s="16"/>
-      <c r="D335" s="4"/>
-      <c r="E335" s="4"/>
-    </row>
-    <row r="336" spans="1:5" ht="15.75" thickBot="1">
-      <c r="D336" s="4"/>
-      <c r="E336" s="4"/>
-    </row>
-    <row r="337" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B335" s="40"/>
+      <c r="C335" s="40"/>
+      <c r="F335" s="4"/>
+      <c r="G335" s="4"/>
+    </row>
+    <row r="336" spans="1:7" ht="15.75" thickBot="1">
+      <c r="F336" s="4"/>
+      <c r="G336" s="4"/>
+    </row>
+    <row r="337" spans="1:7" ht="15.75" thickBot="1">
       <c r="A337" s="6"/>
-      <c r="B337" s="31"/>
+      <c r="B337" s="10"/>
       <c r="C337" s="10"/>
-      <c r="D337" s="4"/>
-      <c r="E337" s="4"/>
-    </row>
-    <row r="338" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D337" s="31"/>
+      <c r="E337" s="10"/>
+      <c r="F337" s="4"/>
+      <c r="G337" s="4"/>
+    </row>
+    <row r="338" spans="1:7" ht="15.75" thickBot="1">
       <c r="A338" s="20"/>
-      <c r="B338" s="37"/>
-      <c r="C338" s="3"/>
-      <c r="D338" s="4"/>
-      <c r="E338" s="4"/>
-    </row>
-    <row r="339" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B338" s="42"/>
+      <c r="C338" s="42"/>
+      <c r="D338" s="37"/>
+      <c r="E338" s="3"/>
+      <c r="F338" s="4"/>
+      <c r="G338" s="4"/>
+    </row>
+    <row r="339" spans="1:7" ht="15.75" thickBot="1">
       <c r="A339" s="14"/>
-    </row>
-    <row r="343" spans="1:5">
+      <c r="B339" s="15"/>
+      <c r="C339" s="15"/>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" s="1"/>
-      <c r="B343" s="33"/>
-      <c r="C343" s="2"/>
-    </row>
-    <row r="344" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="33"/>
+      <c r="E343" s="2"/>
+    </row>
+    <row r="344" spans="1:7" ht="15.75" thickBot="1">
       <c r="A344" s="1"/>
-      <c r="B344" s="33"/>
-      <c r="C344" s="2"/>
-    </row>
-    <row r="345" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="33"/>
+      <c r="E344" s="2"/>
+    </row>
+    <row r="345" spans="1:7" ht="15.75" thickBot="1">
       <c r="A345" s="16"/>
-      <c r="C345" s="2"/>
-    </row>
-    <row r="346" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B345" s="40"/>
+      <c r="C345" s="40"/>
+      <c r="E345" s="2"/>
+    </row>
+    <row r="346" spans="1:7" ht="15.75" thickBot="1">
       <c r="A346" s="19"/>
-      <c r="B346" s="33"/>
-      <c r="C346" s="2"/>
-    </row>
-    <row r="347" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B346" s="43"/>
+      <c r="C346" s="43"/>
+      <c r="D346" s="33"/>
+      <c r="E346" s="2"/>
+    </row>
+    <row r="347" spans="1:7" ht="15.75" thickBot="1">
       <c r="A347" s="19"/>
-      <c r="B347" s="33"/>
-      <c r="C347" s="2"/>
-    </row>
-    <row r="348" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B347" s="43"/>
+      <c r="C347" s="43"/>
+      <c r="D347" s="33"/>
+      <c r="E347" s="2"/>
+    </row>
+    <row r="348" spans="1:7" ht="15.75" thickBot="1">
       <c r="A348" s="19"/>
-      <c r="B348" s="33"/>
-      <c r="C348" s="2"/>
-    </row>
-    <row r="350" spans="1:5">
+      <c r="B348" s="43"/>
+      <c r="C348" s="43"/>
+      <c r="D348" s="33"/>
+      <c r="E348" s="2"/>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" s="10"/>
-      <c r="B350" s="36"/>
-      <c r="C350" s="11"/>
-      <c r="D350" s="12"/>
-      <c r="E350" s="10"/>
-    </row>
-    <row r="351" spans="1:5">
+      <c r="B350" s="10"/>
+      <c r="C350" s="10"/>
+      <c r="D350" s="36"/>
+      <c r="E350" s="11"/>
+      <c r="F350" s="12"/>
+      <c r="G350" s="10"/>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351" s="10"/>
-      <c r="B351" s="36"/>
-      <c r="C351" s="11"/>
-      <c r="D351" s="12"/>
-      <c r="E351" s="10"/>
-    </row>
-    <row r="352" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B351" s="10"/>
+      <c r="C351" s="10"/>
+      <c r="D351" s="36"/>
+      <c r="E351" s="11"/>
+      <c r="F351" s="12"/>
+      <c r="G351" s="10"/>
+    </row>
+    <row r="352" spans="1:7" ht="15.75" thickBot="1">
       <c r="A352" s="10"/>
-      <c r="B352" s="36"/>
-      <c r="C352" s="11"/>
-      <c r="D352" s="12"/>
-      <c r="E352" s="10"/>
-    </row>
-    <row r="353" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B352" s="10"/>
+      <c r="C352" s="10"/>
+      <c r="D352" s="36"/>
+      <c r="E352" s="11"/>
+      <c r="F352" s="12"/>
+      <c r="G352" s="10"/>
+    </row>
+    <row r="353" spans="1:7" ht="15.75" thickBot="1">
       <c r="A353" s="6"/>
-      <c r="B353" s="38"/>
-      <c r="C353" s="7"/>
-      <c r="D353" s="8"/>
-      <c r="E353" s="6"/>
-    </row>
-    <row r="354" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B353" s="6"/>
+      <c r="C353" s="6"/>
+      <c r="D353" s="38"/>
+      <c r="E353" s="7"/>
+      <c r="F353" s="8"/>
+      <c r="G353" s="6"/>
+    </row>
+    <row r="354" spans="1:7" ht="15.75" thickBot="1">
       <c r="A354" s="16"/>
-    </row>
-    <row r="355" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B354" s="40"/>
+      <c r="C354" s="40"/>
+    </row>
+    <row r="355" spans="1:7" ht="15.75" thickBot="1">
       <c r="A355" s="14"/>
-    </row>
-    <row r="356" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B355" s="15"/>
+      <c r="C355" s="15"/>
+    </row>
+    <row r="356" spans="1:7" ht="15.75" thickBot="1">
       <c r="A356" s="15"/>
-    </row>
-    <row r="357" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B356" s="15"/>
+      <c r="C356" s="15"/>
+    </row>
+    <row r="357" spans="1:7" ht="15.75" thickBot="1">
       <c r="A357" s="14"/>
-    </row>
-    <row r="358" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B357" s="15"/>
+      <c r="C357" s="15"/>
+    </row>
+    <row r="358" spans="1:7" ht="15.75" thickBot="1">
       <c r="A358" s="15"/>
-    </row>
-    <row r="359" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B358" s="15"/>
+      <c r="C358" s="15"/>
+    </row>
+    <row r="359" spans="1:7" ht="15.75" thickBot="1">
       <c r="A359" s="14"/>
-      <c r="B359" s="30"/>
-      <c r="C359" s="16"/>
-      <c r="D359" s="16"/>
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
+      <c r="D359" s="30"/>
       <c r="E359" s="16"/>
-    </row>
-    <row r="360" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F359" s="16"/>
+      <c r="G359" s="16"/>
+    </row>
+    <row r="360" spans="1:7" ht="15.75" thickBot="1">
       <c r="A360" s="14"/>
-      <c r="B360" s="30"/>
-      <c r="C360" s="16"/>
-      <c r="D360" s="16"/>
+      <c r="B360" s="14"/>
+      <c r="C360" s="14"/>
+      <c r="D360" s="30"/>
       <c r="E360" s="16"/>
-    </row>
-    <row r="361" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F360" s="16"/>
+      <c r="G360" s="16"/>
+    </row>
+    <row r="361" spans="1:7" ht="15.75" thickBot="1">
       <c r="A361" s="16"/>
-      <c r="C361" s="16"/>
-      <c r="D361" s="16"/>
+      <c r="B361" s="40"/>
+      <c r="C361" s="40"/>
       <c r="E361" s="16"/>
-    </row>
-    <row r="362" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F361" s="16"/>
+      <c r="G361" s="16"/>
+    </row>
+    <row r="362" spans="1:7" ht="15.75" thickBot="1">
       <c r="A362" s="16"/>
-      <c r="B362" s="30"/>
+      <c r="B362" s="16"/>
       <c r="C362" s="16"/>
-      <c r="D362" s="16"/>
+      <c r="D362" s="30"/>
       <c r="E362" s="16"/>
-    </row>
-    <row r="363" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F362" s="16"/>
+      <c r="G362" s="16"/>
+    </row>
+    <row r="363" spans="1:7" ht="15.75" thickBot="1">
       <c r="A363" s="18"/>
-      <c r="B363" s="39"/>
-      <c r="C363" s="26"/>
-      <c r="D363" s="18"/>
-      <c r="E363" s="18"/>
-    </row>
-    <row r="364" spans="1:5">
+      <c r="B363" s="18"/>
+      <c r="C363" s="18"/>
+      <c r="D363" s="39"/>
+      <c r="E363" s="26"/>
+      <c r="F363" s="18"/>
+      <c r="G363" s="18"/>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364" s="4"/>
-      <c r="B364" s="37"/>
-      <c r="C364" s="3"/>
-      <c r="D364" s="4"/>
-      <c r="E364" s="4"/>
-    </row>
-    <row r="365" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B364" s="4"/>
+      <c r="C364" s="4"/>
+      <c r="D364" s="37"/>
+      <c r="E364" s="3"/>
+      <c r="F364" s="4"/>
+      <c r="G364" s="4"/>
+    </row>
+    <row r="365" spans="1:7" ht="15.75" thickBot="1">
       <c r="A365" s="15"/>
-      <c r="C365" s="11"/>
-      <c r="D365" s="12"/>
-      <c r="E365" s="10"/>
-    </row>
-    <row r="366" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B365" s="15"/>
+      <c r="C365" s="15"/>
+      <c r="E365" s="11"/>
+      <c r="F365" s="12"/>
+      <c r="G365" s="10"/>
+    </row>
+    <row r="366" spans="1:7" ht="15.75" thickBot="1">
       <c r="A366" s="14"/>
-      <c r="B366" s="30"/>
-      <c r="C366" s="7"/>
-      <c r="D366" s="8"/>
-      <c r="E366" s="6"/>
-    </row>
-    <row r="367" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B366" s="14"/>
+      <c r="C366" s="14"/>
+      <c r="D366" s="30"/>
+      <c r="E366" s="7"/>
+      <c r="F366" s="8"/>
+      <c r="G366" s="6"/>
+    </row>
+    <row r="367" spans="1:7" ht="15.75" thickBot="1">
       <c r="A367" s="16"/>
-      <c r="C367" s="16"/>
-      <c r="D367" s="18"/>
-      <c r="E367" s="18"/>
-    </row>
-    <row r="368" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B367" s="40"/>
+      <c r="C367" s="40"/>
+      <c r="E367" s="16"/>
+      <c r="F367" s="18"/>
+      <c r="G367" s="18"/>
+    </row>
+    <row r="368" spans="1:7" ht="15.75" thickBot="1">
       <c r="A368" s="14"/>
-      <c r="C368" s="18"/>
-      <c r="D368" s="18"/>
+      <c r="B368" s="15"/>
+      <c r="C368" s="15"/>
       <c r="E368" s="18"/>
-    </row>
-    <row r="369" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F368" s="18"/>
+      <c r="G368" s="18"/>
+    </row>
+    <row r="369" spans="1:7" ht="15.75" thickBot="1">
       <c r="A369" s="14"/>
-      <c r="C369" s="7"/>
-      <c r="D369" s="8"/>
-      <c r="E369" s="6"/>
-    </row>
-    <row r="370" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B369" s="15"/>
+      <c r="C369" s="15"/>
+      <c r="E369" s="7"/>
+      <c r="F369" s="8"/>
+      <c r="G369" s="6"/>
+    </row>
+    <row r="370" spans="1:7" ht="15.75" thickBot="1">
       <c r="A370" s="14"/>
-      <c r="C370" s="7"/>
-      <c r="D370" s="8"/>
-      <c r="E370" s="6"/>
-    </row>
-    <row r="371" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B370" s="15"/>
+      <c r="C370" s="15"/>
+      <c r="E370" s="7"/>
+      <c r="F370" s="8"/>
+      <c r="G370" s="6"/>
+    </row>
+    <row r="371" spans="1:7" ht="15.75" thickBot="1">
       <c r="A371" s="14"/>
-      <c r="C371" s="7"/>
-      <c r="D371" s="8"/>
-      <c r="E371" s="6"/>
-    </row>
-    <row r="372" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B371" s="15"/>
+      <c r="C371" s="15"/>
+      <c r="E371" s="7"/>
+      <c r="F371" s="8"/>
+      <c r="G371" s="6"/>
+    </row>
+    <row r="372" spans="1:7" ht="15.75" thickBot="1">
       <c r="A372" s="16"/>
-      <c r="C372" s="16"/>
-      <c r="D372" s="16"/>
+      <c r="B372" s="40"/>
+      <c r="C372" s="40"/>
       <c r="E372" s="16"/>
-    </row>
-    <row r="373" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F372" s="16"/>
+      <c r="G372" s="16"/>
+    </row>
+    <row r="373" spans="1:7" ht="15.75" thickBot="1">
       <c r="A373" s="16"/>
-      <c r="C373" s="16"/>
-      <c r="D373" s="16"/>
+      <c r="B373" s="40"/>
+      <c r="C373" s="40"/>
       <c r="E373" s="16"/>
-    </row>
-    <row r="374" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F373" s="16"/>
+      <c r="G373" s="16"/>
+    </row>
+    <row r="374" spans="1:7" ht="15.75" thickBot="1">
       <c r="A374" s="16"/>
-      <c r="C374" s="16"/>
-      <c r="D374" s="16"/>
+      <c r="B374" s="40"/>
+      <c r="C374" s="40"/>
       <c r="E374" s="16"/>
-    </row>
-    <row r="375" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F374" s="16"/>
+      <c r="G374" s="16"/>
+    </row>
+    <row r="375" spans="1:7" ht="15.75" thickBot="1">
       <c r="A375" s="16"/>
-      <c r="B375" s="30"/>
+      <c r="B375" s="16"/>
       <c r="C375" s="16"/>
-      <c r="D375" s="16"/>
+      <c r="D375" s="30"/>
       <c r="E375" s="16"/>
-    </row>
-    <row r="376" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F375" s="16"/>
+      <c r="G375" s="16"/>
+    </row>
+    <row r="376" spans="1:7" ht="15.75" thickBot="1">
       <c r="A376" s="16"/>
-      <c r="B376" s="30"/>
+      <c r="B376" s="16"/>
       <c r="C376" s="16"/>
-      <c r="D376" s="16"/>
+      <c r="D376" s="30"/>
       <c r="E376" s="16"/>
-    </row>
-    <row r="377" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="378" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F376" s="16"/>
+      <c r="G376" s="16"/>
+    </row>
+    <row r="377" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="378" spans="1:7" ht="15.75" thickBot="1">
       <c r="A378" s="16"/>
-    </row>
-    <row r="381" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="382" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B378" s="40"/>
+      <c r="C378" s="40"/>
+    </row>
+    <row r="381" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="382" spans="1:7" ht="15.75" thickBot="1">
       <c r="A382" s="16"/>
-    </row>
-    <row r="383" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B382" s="40"/>
+      <c r="C382" s="40"/>
+    </row>
+    <row r="383" spans="1:7" ht="15.75" thickBot="1">
       <c r="A383" s="16"/>
-    </row>
-    <row r="384" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B383" s="40"/>
+      <c r="C383" s="40"/>
+    </row>
+    <row r="384" spans="1:7" ht="15.75" thickBot="1">
       <c r="A384" s="16"/>
-    </row>
-    <row r="385" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="386" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B384" s="40"/>
+      <c r="C384" s="40"/>
+    </row>
+    <row r="385" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="386" spans="1:7" ht="15.75" thickBot="1">
       <c r="A386" s="16"/>
-      <c r="B386" s="30"/>
+      <c r="B386" s="16"/>
       <c r="C386" s="16"/>
-      <c r="D386" s="16"/>
+      <c r="D386" s="30"/>
       <c r="E386" s="16"/>
-    </row>
-    <row r="387" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F386" s="16"/>
+      <c r="G386" s="16"/>
+    </row>
+    <row r="387" spans="1:7" ht="15.75" thickBot="1">
       <c r="A387" s="16"/>
-    </row>
-    <row r="388" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B387" s="40"/>
+      <c r="C387" s="40"/>
+    </row>
+    <row r="388" spans="1:7" ht="15.75" thickBot="1">
       <c r="A388" s="18"/>
-      <c r="B388" s="34"/>
+      <c r="B388" s="18"/>
       <c r="C388" s="18"/>
-      <c r="D388" s="18"/>
-      <c r="E388" s="4"/>
-    </row>
-    <row r="389" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D388" s="34"/>
+      <c r="E388" s="18"/>
+      <c r="F388" s="18"/>
+      <c r="G388" s="4"/>
+    </row>
+    <row r="389" spans="1:7" ht="15.75" thickBot="1">
       <c r="A389" s="4"/>
-      <c r="B389" s="32"/>
+      <c r="B389" s="4"/>
       <c r="C389" s="4"/>
-      <c r="D389" s="4"/>
+      <c r="D389" s="32"/>
       <c r="E389" s="4"/>
-    </row>
-    <row r="390" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F389" s="4"/>
+      <c r="G389" s="4"/>
+    </row>
+    <row r="390" spans="1:7" ht="15.75" thickBot="1">
       <c r="A390" s="18"/>
-      <c r="B390" s="32"/>
-      <c r="C390" s="4"/>
-      <c r="D390" s="4"/>
+      <c r="B390" s="41"/>
+      <c r="C390" s="41"/>
+      <c r="D390" s="32"/>
       <c r="E390" s="4"/>
-    </row>
-    <row r="391" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F390" s="4"/>
+      <c r="G390" s="4"/>
+    </row>
+    <row r="391" spans="1:7" ht="15.75" thickBot="1">
       <c r="A391" s="18"/>
-      <c r="B391" s="32"/>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
+      <c r="B391" s="41"/>
+      <c r="C391" s="41"/>
+      <c r="D391" s="32"/>
       <c r="E391" s="4"/>
-    </row>
-    <row r="392" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F391" s="4"/>
+      <c r="G391" s="4"/>
+    </row>
+    <row r="392" spans="1:7" ht="15.75" thickBot="1">
       <c r="A392" s="16"/>
-      <c r="D392" s="4"/>
-      <c r="E392" s="4"/>
-    </row>
-    <row r="393" spans="1:5">
-      <c r="D393" s="4"/>
-      <c r="E393" s="4"/>
-    </row>
-    <row r="394" spans="1:5">
+      <c r="B392" s="40"/>
+      <c r="C392" s="40"/>
+      <c r="F392" s="4"/>
+      <c r="G392" s="4"/>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="F393" s="4"/>
+      <c r="G393" s="4"/>
+    </row>
+    <row r="394" spans="1:7">
       <c r="A394" s="15"/>
-      <c r="D394" s="4"/>
-      <c r="E394" s="4"/>
-    </row>
-    <row r="395" spans="1:5">
+      <c r="B394" s="15"/>
+      <c r="C394" s="15"/>
+      <c r="F394" s="4"/>
+      <c r="G394" s="4"/>
+    </row>
+    <row r="395" spans="1:7">
       <c r="A395" s="15"/>
-      <c r="D395" s="4"/>
-      <c r="E395" s="4"/>
-    </row>
-    <row r="396" spans="1:5">
+      <c r="B395" s="15"/>
+      <c r="C395" s="15"/>
+      <c r="F395" s="4"/>
+      <c r="G395" s="4"/>
+    </row>
+    <row r="396" spans="1:7">
       <c r="A396" s="15"/>
-      <c r="D396" s="4"/>
-      <c r="E396" s="4"/>
-    </row>
-    <row r="397" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B396" s="15"/>
+      <c r="C396" s="15"/>
+      <c r="F396" s="4"/>
+      <c r="G396" s="4"/>
+    </row>
+    <row r="397" spans="1:7" ht="15.75" thickBot="1">
       <c r="A397" s="15"/>
-      <c r="D397" s="4"/>
-      <c r="E397" s="4"/>
-    </row>
-    <row r="398" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B397" s="15"/>
+      <c r="C397" s="15"/>
+      <c r="F397" s="4"/>
+      <c r="G397" s="4"/>
+    </row>
+    <row r="398" spans="1:7" ht="15.75" thickBot="1">
       <c r="A398" s="14"/>
-      <c r="D398" s="4"/>
-      <c r="E398" s="4"/>
-    </row>
-    <row r="399" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B398" s="15"/>
+      <c r="C398" s="15"/>
+      <c r="F398" s="4"/>
+      <c r="G398" s="4"/>
+    </row>
+    <row r="399" spans="1:7" ht="15.75" thickBot="1">
       <c r="A399" s="14"/>
-      <c r="D399" s="4"/>
-      <c r="E399" s="4"/>
-    </row>
-    <row r="400" spans="1:5">
+      <c r="B399" s="15"/>
+      <c r="C399" s="15"/>
+      <c r="F399" s="4"/>
+      <c r="G399" s="4"/>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400" s="15"/>
-      <c r="D400" s="4"/>
-      <c r="E400" s="4"/>
-    </row>
-    <row r="401" spans="1:5">
+      <c r="B400" s="15"/>
+      <c r="C400" s="15"/>
+      <c r="F400" s="4"/>
+      <c r="G400" s="4"/>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401" s="15"/>
-      <c r="D401" s="4"/>
-      <c r="E401" s="4"/>
-    </row>
-    <row r="402" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B401" s="15"/>
+      <c r="C401" s="15"/>
+      <c r="F401" s="4"/>
+      <c r="G401" s="4"/>
+    </row>
+    <row r="402" spans="1:7" ht="15.75" thickBot="1">
       <c r="A402" s="15"/>
-      <c r="D402" s="4"/>
-      <c r="E402" s="4"/>
-    </row>
-    <row r="403" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B402" s="15"/>
+      <c r="C402" s="15"/>
+      <c r="F402" s="4"/>
+      <c r="G402" s="4"/>
+    </row>
+    <row r="403" spans="1:7" ht="15.75" thickBot="1">
       <c r="A403" s="16"/>
-      <c r="D403" s="4"/>
-      <c r="E403" s="4"/>
-    </row>
-    <row r="404" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B403" s="40"/>
+      <c r="C403" s="40"/>
+      <c r="F403" s="4"/>
+      <c r="G403" s="4"/>
+    </row>
+    <row r="404" spans="1:7" ht="15.75" thickBot="1">
       <c r="A404" s="16"/>
-      <c r="D404" s="4"/>
-      <c r="E404" s="4"/>
-    </row>
-    <row r="405" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B404" s="40"/>
+      <c r="C404" s="40"/>
+      <c r="F404" s="4"/>
+      <c r="G404" s="4"/>
+    </row>
+    <row r="405" spans="1:7" ht="15.75" thickBot="1">
       <c r="A405" s="14"/>
-      <c r="D405" s="4"/>
-      <c r="E405" s="4"/>
-    </row>
-    <row r="406" spans="1:5">
+      <c r="B405" s="15"/>
+      <c r="C405" s="15"/>
+      <c r="F405" s="4"/>
+      <c r="G405" s="4"/>
+    </row>
+    <row r="406" spans="1:7">
       <c r="A406" s="15"/>
-      <c r="D406" s="4"/>
-      <c r="E406" s="4"/>
-    </row>
-    <row r="407" spans="1:5">
+      <c r="B406" s="15"/>
+      <c r="C406" s="15"/>
+      <c r="F406" s="4"/>
+      <c r="G406" s="4"/>
+    </row>
+    <row r="407" spans="1:7">
       <c r="A407" s="15"/>
-      <c r="D407" s="4"/>
-      <c r="E407" s="4"/>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="D408" s="4"/>
-      <c r="E408" s="4"/>
-    </row>
-    <row r="409" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B407" s="15"/>
+      <c r="C407" s="15"/>
+      <c r="F407" s="4"/>
+      <c r="G407" s="4"/>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="F408" s="4"/>
+      <c r="G408" s="4"/>
+    </row>
+    <row r="409" spans="1:7" ht="15.75" thickBot="1">
       <c r="A409" s="4"/>
-      <c r="B409" s="37"/>
-      <c r="C409" s="3"/>
-      <c r="D409" s="4"/>
-      <c r="E409" s="4"/>
-    </row>
-    <row r="410" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B409" s="4"/>
+      <c r="C409" s="4"/>
+      <c r="D409" s="37"/>
+      <c r="E409" s="3"/>
+      <c r="F409" s="4"/>
+      <c r="G409" s="4"/>
+    </row>
+    <row r="410" spans="1:7" ht="15.75" thickBot="1">
       <c r="A410" s="6"/>
-      <c r="B410" s="36"/>
-      <c r="C410" s="11"/>
-      <c r="D410" s="12"/>
-      <c r="E410" s="10"/>
-    </row>
-    <row r="411" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B410" s="10"/>
+      <c r="C410" s="10"/>
+      <c r="D410" s="36"/>
+      <c r="E410" s="11"/>
+      <c r="F410" s="12"/>
+      <c r="G410" s="10"/>
+    </row>
+    <row r="411" spans="1:7" ht="15.75" thickBot="1">
       <c r="A411" s="6"/>
-      <c r="B411" s="36"/>
-      <c r="C411" s="11"/>
-      <c r="D411" s="12"/>
-      <c r="E411" s="10"/>
-    </row>
-    <row r="412" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B411" s="10"/>
+      <c r="C411" s="10"/>
+      <c r="D411" s="36"/>
+      <c r="E411" s="11"/>
+      <c r="F411" s="12"/>
+      <c r="G411" s="10"/>
+    </row>
+    <row r="412" spans="1:7" ht="15.75" thickBot="1">
       <c r="A412" s="9"/>
-      <c r="B412" s="36"/>
-      <c r="C412" s="11"/>
-      <c r="D412" s="12"/>
-      <c r="E412" s="10"/>
-    </row>
-    <row r="413" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B412" s="22"/>
+      <c r="C412" s="22"/>
+      <c r="D412" s="36"/>
+      <c r="E412" s="11"/>
+      <c r="F412" s="12"/>
+      <c r="G412" s="10"/>
+    </row>
+    <row r="413" spans="1:7" ht="15.75" thickBot="1">
       <c r="A413" s="9"/>
-      <c r="B413" s="36"/>
-      <c r="C413" s="11"/>
-      <c r="D413" s="12"/>
-      <c r="E413" s="10"/>
-    </row>
-    <row r="414" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B413" s="22"/>
+      <c r="C413" s="22"/>
+      <c r="D413" s="36"/>
+      <c r="E413" s="11"/>
+      <c r="F413" s="12"/>
+      <c r="G413" s="10"/>
+    </row>
+    <row r="414" spans="1:7" ht="15.75" thickBot="1">
       <c r="A414" s="14"/>
-      <c r="C414" s="11"/>
-      <c r="D414" s="12"/>
-      <c r="E414" s="10"/>
-    </row>
-    <row r="415" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B414" s="15"/>
+      <c r="C414" s="15"/>
+      <c r="E414" s="11"/>
+      <c r="F414" s="12"/>
+      <c r="G414" s="10"/>
+    </row>
+    <row r="415" spans="1:7" ht="15.75" thickBot="1">
       <c r="A415" s="14"/>
-      <c r="C415" s="11"/>
-      <c r="D415" s="12"/>
-      <c r="E415" s="10"/>
-    </row>
-    <row r="416" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B415" s="15"/>
+      <c r="C415" s="15"/>
+      <c r="E415" s="11"/>
+      <c r="F415" s="12"/>
+      <c r="G415" s="10"/>
+    </row>
+    <row r="416" spans="1:7" ht="15.75" thickBot="1">
       <c r="A416" s="14"/>
-      <c r="C416" s="11"/>
-      <c r="D416" s="12"/>
-      <c r="E416" s="10"/>
-    </row>
-    <row r="417" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B416" s="15"/>
+      <c r="C416" s="15"/>
+      <c r="E416" s="11"/>
+      <c r="F416" s="12"/>
+      <c r="G416" s="10"/>
+    </row>
+    <row r="417" spans="1:7" ht="15.75" thickBot="1">
       <c r="A417" s="15"/>
-      <c r="C417" s="11"/>
-      <c r="D417" s="12"/>
-      <c r="E417" s="10"/>
-    </row>
-    <row r="418" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B417" s="15"/>
+      <c r="C417" s="15"/>
+      <c r="E417" s="11"/>
+      <c r="F417" s="12"/>
+      <c r="G417" s="10"/>
+    </row>
+    <row r="418" spans="1:7" ht="15.75" thickBot="1">
       <c r="A418" s="6"/>
-      <c r="B418" s="36"/>
-      <c r="C418" s="11"/>
-      <c r="D418" s="12"/>
-      <c r="E418" s="10"/>
-    </row>
-    <row r="419" spans="1:5">
+      <c r="B418" s="10"/>
+      <c r="C418" s="10"/>
+      <c r="D418" s="36"/>
+      <c r="E418" s="11"/>
+      <c r="F418" s="12"/>
+      <c r="G418" s="10"/>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419" s="15"/>
-      <c r="B419" s="37"/>
-      <c r="C419" s="3"/>
-      <c r="D419" s="4"/>
-      <c r="E419" s="4"/>
-    </row>
-    <row r="420" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B419" s="15"/>
+      <c r="C419" s="15"/>
+      <c r="D419" s="37"/>
+      <c r="E419" s="3"/>
+      <c r="F419" s="4"/>
+      <c r="G419" s="4"/>
+    </row>
+    <row r="420" spans="1:7" ht="15.75" thickBot="1">
       <c r="A420" s="15"/>
-      <c r="B420" s="37"/>
-      <c r="C420" s="3"/>
-      <c r="D420" s="4"/>
-      <c r="E420" s="4"/>
-    </row>
-    <row r="421" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B420" s="15"/>
+      <c r="C420" s="15"/>
+      <c r="D420" s="37"/>
+      <c r="E420" s="3"/>
+      <c r="F420" s="4"/>
+      <c r="G420" s="4"/>
+    </row>
+    <row r="421" spans="1:7" ht="15.75" thickBot="1">
       <c r="A421" s="14"/>
-      <c r="B421" s="37"/>
-      <c r="C421" s="3"/>
-      <c r="D421" s="4"/>
-      <c r="E421" s="4"/>
-    </row>
-    <row r="422" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B421" s="15"/>
+      <c r="C421" s="15"/>
+      <c r="D421" s="37"/>
+      <c r="E421" s="3"/>
+      <c r="F421" s="4"/>
+      <c r="G421" s="4"/>
+    </row>
+    <row r="422" spans="1:7" ht="15.75" thickBot="1">
       <c r="A422" s="6"/>
-      <c r="B422" s="36"/>
-      <c r="C422" s="11"/>
-      <c r="D422" s="12"/>
-      <c r="E422" s="10"/>
-    </row>
-    <row r="423" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B422" s="10"/>
+      <c r="C422" s="10"/>
+      <c r="D422" s="36"/>
+      <c r="E422" s="11"/>
+      <c r="F422" s="12"/>
+      <c r="G422" s="10"/>
+    </row>
+    <row r="423" spans="1:7" ht="15.75" thickBot="1">
       <c r="A423" s="16"/>
-      <c r="C423" s="13"/>
-    </row>
-    <row r="424" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B423" s="40"/>
+      <c r="C423" s="40"/>
+      <c r="E423" s="13"/>
+    </row>
+    <row r="424" spans="1:7" ht="15.75" thickBot="1">
       <c r="A424" s="16"/>
-      <c r="C424" s="13"/>
-    </row>
-    <row r="425" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B424" s="40"/>
+      <c r="C424" s="40"/>
+      <c r="E424" s="13"/>
+    </row>
+    <row r="425" spans="1:7" ht="15.75" thickBot="1">
       <c r="A425" s="16"/>
-      <c r="C425" s="13"/>
-    </row>
-    <row r="426" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B425" s="40"/>
+      <c r="C425" s="40"/>
+      <c r="E425" s="13"/>
+    </row>
+    <row r="426" spans="1:7" ht="15.75" thickBot="1">
       <c r="A426" s="16"/>
-    </row>
-    <row r="427" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B426" s="40"/>
+      <c r="C426" s="40"/>
+    </row>
+    <row r="427" spans="1:7" ht="15.75" thickBot="1">
       <c r="A427" s="16"/>
-    </row>
-    <row r="428" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B427" s="40"/>
+      <c r="C427" s="40"/>
+    </row>
+    <row r="428" spans="1:7" ht="15.75" thickBot="1">
       <c r="A428" s="13"/>
+      <c r="B428" s="13"/>
       <c r="C428" s="13"/>
-    </row>
-    <row r="429" spans="1:5" ht="15.75" thickBot="1">
-      <c r="D429" s="16"/>
-      <c r="E429" s="16"/>
-    </row>
-    <row r="433" spans="1:5" ht="15.75" thickBot="1">
-      <c r="D433" s="12"/>
-      <c r="E433" s="10"/>
-    </row>
-    <row r="434" spans="1:5" ht="15.75" thickBot="1">
+      <c r="E428" s="13"/>
+    </row>
+    <row r="429" spans="1:7" ht="15.75" thickBot="1">
+      <c r="F429" s="16"/>
+      <c r="G429" s="16"/>
+    </row>
+    <row r="433" spans="1:7" ht="15.75" thickBot="1">
+      <c r="F433" s="12"/>
+      <c r="G433" s="10"/>
+    </row>
+    <row r="434" spans="1:7" ht="15.75" thickBot="1">
       <c r="A434" s="16"/>
-    </row>
-    <row r="435" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B434" s="40"/>
+      <c r="C434" s="40"/>
+    </row>
+    <row r="435" spans="1:7" ht="15.75" thickBot="1">
       <c r="A435" s="16"/>
-    </row>
-    <row r="436" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="437" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B435" s="40"/>
+      <c r="C435" s="40"/>
+    </row>
+    <row r="436" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="437" spans="1:7" ht="15.75" thickBot="1">
       <c r="A437" s="16"/>
-    </row>
-    <row r="442" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="443" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B437" s="40"/>
+      <c r="C437" s="40"/>
+    </row>
+    <row r="442" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="443" spans="1:7" ht="15.75" thickBot="1">
       <c r="A443" s="16"/>
+      <c r="B443" s="40"/>
+      <c r="C443" s="40"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E603">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G603">
     <sortCondition ref="A2:A603"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
